--- a/2_21_19_QLs.xlsx
+++ b/2_21_19_QLs.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="6870"/>
   </bookViews>
   <sheets>
-    <sheet name="QLs" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">QLs!$A$1:$H$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$191</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="509">
   <si>
     <t>Nitrates-Nitrite (as N)</t>
   </si>
@@ -1226,244 +1226,7 @@
     <t>Fluorotrichloromethane</t>
   </si>
   <si>
-    <t xml:space="preserve">SM4500-NO3 F, 353.2 </t>
-  </si>
-  <si>
-    <t>1632A</t>
-  </si>
-  <si>
-    <t>Calc</t>
-  </si>
-  <si>
-    <t>200.7, 200.8</t>
-  </si>
-  <si>
-    <t>335.4,  SM4500CN</t>
-  </si>
-  <si>
-    <t>SM4500CN-G, OIA</t>
-  </si>
-  <si>
-    <t>300.0, 300.1</t>
-  </si>
-  <si>
-    <t>SM4500-S</t>
-  </si>
-  <si>
-    <t>SM5540 C</t>
-  </si>
-  <si>
-    <t>625, 1625</t>
-  </si>
-  <si>
-    <t>625, 608</t>
-  </si>
-  <si>
-    <t>1657/508/622</t>
-  </si>
-  <si>
-    <t>614, 622</t>
-  </si>
-  <si>
-    <t>614, 622, 1657</t>
-  </si>
-  <si>
-    <t>614, 1657</t>
-  </si>
-  <si>
-    <t>505, 508, 608</t>
-  </si>
-  <si>
-    <t>505, 508, 608, 617</t>
-  </si>
-  <si>
-    <t>615, SM6640B</t>
-  </si>
-  <si>
-    <t>GCMS, SIM, GCFPD</t>
-  </si>
-  <si>
     <t>Min_WQ_Crit</t>
-  </si>
-  <si>
-    <t>DEQ_Pref_Method</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">625, 1625 , </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>604</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">625, 1625, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>609</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">625, 1625 (SIM), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>610</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">625, 1625, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>611</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">625, 1625, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>612</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1631, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>245.7</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>625, 1625,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 607</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">625, 1625 (SIM), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>604</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">625, 1625 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(SIM), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>610</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>625, 1625</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (SIM), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>610</t>
-    </r>
   </si>
   <si>
     <t>Char_Name</t>
@@ -1802,17 +1565,10 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1855,7 +1611,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1865,23 +1621,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1889,15 +1645,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1909,14 +1665,14 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2249,28 +2005,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:V191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="37" style="4" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.7109375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="8" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>369</v>
@@ -2288,15 +2044,12 @@
         <v>363</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
       <c r="B2" s="1">
         <v>959988</v>
@@ -2316,13 +2069,10 @@
       <c r="G2" s="8">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="B3" s="1">
         <v>319846</v>
@@ -2342,13 +2092,10 @@
       <c r="G3" s="8">
         <v>4.4999999999999999E-4</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="B4" s="1">
         <v>33213659</v>
@@ -2368,13 +2115,10 @@
       <c r="G4" s="8">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="B5" s="1">
         <v>319857</v>
@@ -2394,13 +2138,10 @@
       <c r="G5" s="8">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="B6" s="1">
         <v>71556</v>
@@ -2420,13 +2161,10 @@
       <c r="G6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="B7" s="1">
         <v>79345</v>
@@ -2446,13 +2184,10 @@
       <c r="G7" s="8">
         <v>0.12</v>
       </c>
-      <c r="H7" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
       <c r="B8" s="1">
         <v>79005</v>
@@ -2472,13 +2207,10 @@
       <c r="G8" s="8">
         <v>0.44</v>
       </c>
-      <c r="H8" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="B9" s="1">
         <v>75343</v>
@@ -2498,13 +2230,10 @@
       <c r="G9" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="B10" s="1">
         <v>75354</v>
@@ -2524,11 +2253,8 @@
       <c r="G10" s="8">
         <v>230</v>
       </c>
-      <c r="H10" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>370</v>
       </c>
@@ -2550,11 +2276,8 @@
       <c r="G11" s="8">
         <v>1.4E-3</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>270</v>
       </c>
@@ -2576,13 +2299,10 @@
       <c r="G12" s="8">
         <v>0.11</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="B13" s="1">
         <v>120821</v>
@@ -2602,13 +2322,10 @@
       <c r="G13" s="8">
         <v>6.4</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="B14" s="1">
         <v>107062</v>
@@ -2628,13 +2345,10 @@
       <c r="G14" s="8">
         <v>0.35</v>
       </c>
-      <c r="H14" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="B15" s="1">
         <v>78875</v>
@@ -2654,13 +2368,10 @@
       <c r="G15" s="8">
         <v>0.38</v>
       </c>
-      <c r="H15" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="B16" s="1">
         <v>122667</v>
@@ -2680,11 +2391,8 @@
       <c r="G16" s="8">
         <v>1.4E-2</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>371</v>
       </c>
@@ -2706,11 +2414,8 @@
       <c r="G17" s="8">
         <v>0.3</v>
       </c>
-      <c r="H17" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>383</v>
       </c>
@@ -2732,13 +2437,10 @@
       <c r="G18" s="8">
         <v>5.1E-10</v>
       </c>
-      <c r="H18" s="8">
-        <v>1613</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="B19" s="1">
         <v>95954</v>
@@ -2758,13 +2460,10 @@
       <c r="G19" s="8">
         <v>330</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="B20" s="1">
         <v>88062</v>
@@ -2784,11 +2483,8 @@
       <c r="G20" s="8">
         <v>0.23</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>379</v>
       </c>
@@ -2810,13 +2506,10 @@
       <c r="G21" s="8">
         <v>100</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="B22" s="1">
         <v>120832</v>
@@ -2836,13 +2529,10 @@
       <c r="G22" s="8">
         <v>23</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="B23" s="1">
         <v>105679</v>
@@ -2862,13 +2552,10 @@
       <c r="G23" s="8">
         <v>76</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="B24" s="1">
         <v>51285</v>
@@ -2888,13 +2575,10 @@
       <c r="G24" s="8">
         <v>62</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="B25" s="1">
         <v>121142</v>
@@ -2914,13 +2598,10 @@
       <c r="G25" s="8">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="H25" s="14" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="B26" s="1">
         <v>606202</v>
@@ -2940,13 +2621,10 @@
       <c r="G26" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="B27" s="1">
         <v>110758</v>
@@ -2966,13 +2644,10 @@
       <c r="G27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="B28" s="1">
         <v>91587</v>
@@ -2992,13 +2667,10 @@
       <c r="G28" s="8">
         <v>150</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="B29" s="1">
         <v>91941</v>
@@ -3018,13 +2690,10 @@
       <c r="G29" s="8">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="B30" s="1">
         <v>534521</v>
@@ -3044,11 +2713,8 @@
       <c r="G30" s="8">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>180</v>
       </c>
@@ -3070,11 +2736,8 @@
       <c r="G31" s="8">
         <v>95</v>
       </c>
-      <c r="H31" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>182</v>
       </c>
@@ -3096,11 +2759,8 @@
       <c r="G32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>88</v>
       </c>
@@ -3122,11 +2782,8 @@
       <c r="G33" s="8">
         <v>0.88</v>
       </c>
-      <c r="H33" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>90</v>
       </c>
@@ -3148,11 +2805,8 @@
       <c r="G34" s="8">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="H34" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -3174,11 +2828,8 @@
       <c r="G35" s="8">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>372</v>
       </c>
@@ -3200,13 +2851,10 @@
       <c r="G36" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>71</v>
@@ -3226,11 +2874,8 @@
       <c r="G37" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H37" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>184</v>
       </c>
@@ -3252,13 +2897,10 @@
       <c r="G38" s="8">
         <v>2900</v>
       </c>
-      <c r="H38" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="B39" s="1">
         <v>7440360</v>
@@ -3278,13 +2920,10 @@
       <c r="G39" s="13">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H39" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="B40" s="1">
         <v>12674112</v>
@@ -3304,13 +2943,10 @@
       <c r="G40" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="B41" s="1">
         <v>11104282</v>
@@ -3330,13 +2966,10 @@
       <c r="G41" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="B42" s="1">
         <v>11141165</v>
@@ -3356,13 +2989,10 @@
       <c r="G42" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="B43" s="1">
         <v>53469219</v>
@@ -3382,13 +3012,10 @@
       <c r="G43" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="B44" s="1">
         <v>12672296</v>
@@ -3408,13 +3035,10 @@
       <c r="G44" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="B45" s="1">
         <v>11097691</v>
@@ -3434,13 +3058,10 @@
       <c r="G45" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="B46" s="1">
         <v>11096825</v>
@@ -3460,13 +3081,10 @@
       <c r="G46" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="B47" s="2">
         <v>7440382</v>
@@ -3486,11 +3104,8 @@
       <c r="G47" s="13">
         <v>150</v>
       </c>
-      <c r="H47" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>373</v>
       </c>
@@ -3512,13 +3127,10 @@
       <c r="G48" s="13">
         <v>2.1</v>
       </c>
-      <c r="H48" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="B49" s="2">
         <v>7440382</v>
@@ -3538,13 +3150,10 @@
       <c r="G49" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H49" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="B50" s="1">
         <v>86500</v>
@@ -3564,11 +3173,8 @@
       <c r="G50" s="8">
         <v>0.01</v>
       </c>
-      <c r="H50" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>186</v>
       </c>
@@ -3590,13 +3196,10 @@
       <c r="G51" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>73</v>
@@ -3616,13 +3219,10 @@
       <c r="G52" s="8">
         <v>1000</v>
       </c>
-      <c r="H52" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="B53" s="1">
         <v>56553</v>
@@ -3642,11 +3242,8 @@
       <c r="G53" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H53" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>92</v>
       </c>
@@ -3668,11 +3265,8 @@
       <c r="G54" s="8">
         <v>0.44</v>
       </c>
-      <c r="H54" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>374</v>
       </c>
@@ -3694,11 +3288,8 @@
       <c r="G55" s="8">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H55" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>380</v>
       </c>
@@ -3720,11 +3311,8 @@
       <c r="G56" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H56" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>188</v>
       </c>
@@ -3746,11 +3334,8 @@
       <c r="G57" s="8">
         <v>1.8E-5</v>
       </c>
-      <c r="H57" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>194</v>
       </c>
@@ -3772,13 +3357,10 @@
       <c r="G58" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H58" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="B59" s="1">
         <v>50328</v>
@@ -3798,13 +3380,10 @@
       <c r="G59" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H59" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="B60" s="1">
         <v>191242</v>
@@ -3824,13 +3403,10 @@
       <c r="G60" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H60" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="B61" s="1">
         <v>207089</v>
@@ -3850,13 +3426,10 @@
       <c r="G61" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H61" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="B62" s="1">
         <v>7440417</v>
@@ -3876,13 +3449,10 @@
       <c r="G62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H62" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="B63" s="1">
         <v>108601</v>
@@ -3902,13 +3472,10 @@
       <c r="G63" s="8">
         <v>1200</v>
       </c>
-      <c r="H63" s="14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="B64" s="1">
         <v>111911</v>
@@ -3928,13 +3495,10 @@
       <c r="G64" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H64" s="14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
       <c r="B65" s="1">
         <v>111444</v>
@@ -3954,11 +3518,8 @@
       <c r="G65" s="8">
         <v>0.02</v>
       </c>
-      <c r="H65" s="14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>381</v>
       </c>
@@ -3980,13 +3541,10 @@
       <c r="G66" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H66" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>75</v>
@@ -4006,11 +3564,8 @@
       <c r="G67" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H67" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>61</v>
       </c>
@@ -4032,13 +3587,10 @@
       <c r="G68" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H68" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="B69" s="1">
         <v>85687</v>
@@ -4058,13 +3610,10 @@
       <c r="G69" s="8">
         <v>190</v>
       </c>
-      <c r="H69" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="B70" s="1">
         <v>7440439</v>
@@ -4084,13 +3633,10 @@
       <c r="G70" s="13">
         <v>0.24599634148460026</v>
       </c>
-      <c r="H70" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="B71" s="1">
         <v>7440439</v>
@@ -4110,13 +3656,10 @@
       <c r="G71" s="13">
         <v>3.9221186109975661</v>
       </c>
-      <c r="H71" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="B72" s="1">
         <v>56235</v>
@@ -4136,11 +3679,8 @@
       <c r="G72" s="8">
         <v>0.1</v>
       </c>
-      <c r="H72" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>284</v>
       </c>
@@ -4162,11 +3702,8 @@
       <c r="G73" s="8">
         <v>8.1000000000000004E-5</v>
       </c>
-      <c r="H73" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>342</v>
       </c>
@@ -4188,11 +3725,8 @@
       <c r="G74" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H74" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>98</v>
       </c>
@@ -4214,11 +3748,8 @@
       <c r="G75" s="8">
         <v>74</v>
       </c>
-      <c r="H75" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>100</v>
       </c>
@@ -4240,11 +3771,8 @@
       <c r="G76" s="8">
         <v>0.31</v>
       </c>
-      <c r="H76" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>102</v>
       </c>
@@ -4266,11 +3794,8 @@
       <c r="G77" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H77" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>106</v>
       </c>
@@ -4292,11 +3817,8 @@
       <c r="G78" s="8">
         <v>260</v>
       </c>
-      <c r="H78" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>375</v>
       </c>
@@ -4318,11 +3840,8 @@
       <c r="G79" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H79" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>286</v>
       </c>
@@ -4344,13 +3863,10 @@
       <c r="G80" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="H80" s="8" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="B81" s="1">
         <v>16065831</v>
@@ -4370,13 +3886,10 @@
       <c r="G81" s="13">
         <v>74.114522080141811</v>
       </c>
-      <c r="H81" s="14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="B82" s="1">
         <v>18540299</v>
@@ -4396,13 +3909,10 @@
       <c r="G82" s="13">
         <v>10.581999999999999</v>
       </c>
-      <c r="H82" s="8">
-        <v>218.6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="B83" s="1">
         <v>7440473</v>
@@ -4422,13 +3932,10 @@
       <c r="G83" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H83" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="B84" s="1">
         <v>7440473</v>
@@ -4448,11 +3955,8 @@
       <c r="G84" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H84" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>216</v>
       </c>
@@ -4474,13 +3978,10 @@
       <c r="G85" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H85" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="B86" s="15" t="s">
         <v>77</v>
@@ -4500,13 +4001,10 @@
       <c r="G86" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H86" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="B87" s="1">
         <v>7440508</v>
@@ -4526,13 +4024,10 @@
       <c r="G87" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H87" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="B88" s="1">
         <v>7440508</v>
@@ -4552,13 +4047,10 @@
       <c r="G88" s="13">
         <v>11.823841083208801</v>
       </c>
-      <c r="H88" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="B89" s="2">
         <v>57125</v>
@@ -4578,13 +4070,10 @@
       <c r="G89" s="13">
         <v>130</v>
       </c>
-      <c r="H89" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>60</v>
@@ -4604,11 +4093,8 @@
       <c r="G90" s="13">
         <v>5.2</v>
       </c>
-      <c r="H90" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>288</v>
       </c>
@@ -4630,13 +4116,10 @@
       <c r="G91" s="8">
         <v>0.1</v>
       </c>
-      <c r="H91" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="B92" s="1">
         <v>117817</v>
@@ -4656,13 +4139,10 @@
       <c r="G92" s="8">
         <v>0.2</v>
       </c>
-      <c r="H92" s="14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="B93" s="1">
         <v>53703</v>
@@ -4682,13 +4162,10 @@
       <c r="G93" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H93" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="B94" s="1">
         <v>84742</v>
@@ -4708,11 +4185,8 @@
       <c r="G94" s="8">
         <v>400</v>
       </c>
-      <c r="H94" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>108</v>
       </c>
@@ -4734,11 +4208,8 @@
       <c r="G95" s="8">
         <v>0.42</v>
       </c>
-      <c r="H95" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>382</v>
       </c>
@@ -4760,11 +4231,8 @@
       <c r="G96" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H96" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>296</v>
       </c>
@@ -4786,11 +4254,8 @@
       <c r="G97" s="8">
         <v>5.3000000000000001E-6</v>
       </c>
-      <c r="H97" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>226</v>
       </c>
@@ -4812,11 +4277,8 @@
       <c r="G98" s="8">
         <v>3800</v>
       </c>
-      <c r="H98" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>228</v>
       </c>
@@ -4838,11 +4300,8 @@
       <c r="G99" s="8">
         <v>84000</v>
       </c>
-      <c r="H99" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>220</v>
       </c>
@@ -4864,11 +4323,8 @@
       <c r="G100" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H100" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>304</v>
       </c>
@@ -4890,13 +4346,10 @@
       <c r="G101" s="8">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="H101" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="B102" s="1">
         <v>1031078</v>
@@ -4916,11 +4369,8 @@
       <c r="G102" s="8">
         <v>8.5</v>
       </c>
-      <c r="H102" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>306</v>
       </c>
@@ -4942,13 +4392,10 @@
       <c r="G103" s="8">
         <v>2.4E-2</v>
       </c>
-      <c r="H103" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="B104" s="1">
         <v>7421934</v>
@@ -4968,11 +4415,8 @@
       <c r="G104" s="8">
         <v>0.03</v>
       </c>
-      <c r="H104" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>128</v>
       </c>
@@ -4994,11 +4438,8 @@
       <c r="G105" s="8">
         <v>160</v>
       </c>
-      <c r="H105" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>236</v>
       </c>
@@ -5020,11 +4461,8 @@
       <c r="G106" s="8">
         <v>14</v>
       </c>
-      <c r="H106" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>238</v>
       </c>
@@ -5046,11 +4484,8 @@
       <c r="G107" s="8">
         <v>390</v>
       </c>
-      <c r="H107" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>63</v>
       </c>
@@ -5072,11 +4507,8 @@
       <c r="G108" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H108" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>398</v>
       </c>
@@ -5098,11 +4530,8 @@
       <c r="G109" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H109" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>312</v>
       </c>
@@ -5124,13 +4553,10 @@
       <c r="G110" s="8">
         <v>7.9000000000000006E-6</v>
       </c>
-      <c r="H110" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="B111" s="1">
         <v>1024573</v>
@@ -5150,11 +4576,8 @@
       <c r="G111" s="8">
         <v>3.8999999999999999E-6</v>
       </c>
-      <c r="H111" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>240</v>
       </c>
@@ -5176,11 +4599,8 @@
       <c r="G112" s="8">
         <v>2.9E-5</v>
       </c>
-      <c r="H112" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>242</v>
       </c>
@@ -5202,11 +4622,8 @@
       <c r="G113" s="8">
         <v>0.36</v>
       </c>
-      <c r="H113" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>244</v>
       </c>
@@ -5228,11 +4645,8 @@
       <c r="G114" s="8">
         <v>30</v>
       </c>
-      <c r="H114" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>246</v>
       </c>
@@ -5254,11 +4668,8 @@
       <c r="G115" s="8">
         <v>0.28999999999999998</v>
       </c>
-      <c r="H115" s="14" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>384</v>
       </c>
@@ -5280,13 +4691,10 @@
       <c r="G116" s="8">
         <v>2</v>
       </c>
-      <c r="H116" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="B117" s="1">
         <v>193395</v>
@@ -5306,11 +4714,8 @@
       <c r="G117" s="8">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H117" s="8" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>376</v>
       </c>
@@ -5332,13 +4737,10 @@
       <c r="G118" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H118" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B119" s="1">
         <v>7439896</v>
@@ -5358,11 +4760,8 @@
       <c r="G119" s="13">
         <v>1000</v>
       </c>
-      <c r="H119" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>250</v>
       </c>
@@ -5384,13 +4783,10 @@
       <c r="G120" s="8">
         <v>27</v>
       </c>
-      <c r="H120" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="B121" s="1">
         <v>7439921</v>
@@ -5410,13 +4806,10 @@
       <c r="G121" s="13">
         <v>2.5166437242964461</v>
       </c>
-      <c r="H121" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="B122" s="1">
         <v>7439921</v>
@@ -5436,13 +4829,10 @@
       <c r="G122" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H122" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="B123" s="1">
         <v>58899</v>
@@ -5462,13 +4852,10 @@
       <c r="G123" s="8">
         <v>0.08</v>
       </c>
-      <c r="H123" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="B124" s="15" t="s">
         <v>79</v>
@@ -5488,11 +4875,8 @@
       <c r="G124" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H124" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>316</v>
       </c>
@@ -5514,13 +4898,10 @@
       <c r="G125" s="8">
         <v>0.1</v>
       </c>
-      <c r="H125" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="B126" s="15" t="s">
         <v>83</v>
@@ -5540,13 +4921,10 @@
       <c r="G126" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H126" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="B127" s="1">
         <v>541731</v>
@@ -5566,13 +4944,10 @@
       <c r="G127" s="8">
         <v>80</v>
       </c>
-      <c r="H127" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="B128" s="1">
         <v>7439976</v>
@@ -5592,11 +4967,8 @@
       <c r="G128" s="18">
         <v>1.2E-2</v>
       </c>
-      <c r="H128" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>318</v>
       </c>
@@ -5618,13 +4990,10 @@
       <c r="G129" s="8">
         <v>0.03</v>
       </c>
-      <c r="H129" s="8" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="B130" s="1">
         <v>74839</v>
@@ -5644,13 +5013,10 @@
       <c r="G130" s="8">
         <v>37</v>
       </c>
-      <c r="H130" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="B131" s="1">
         <v>75092</v>
@@ -5670,11 +5036,8 @@
       <c r="G131" s="8">
         <v>4.3</v>
       </c>
-      <c r="H131" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>385</v>
       </c>
@@ -5696,11 +5059,8 @@
       <c r="G132" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H132" s="8">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>320</v>
       </c>
@@ -5722,13 +5082,10 @@
       <c r="G133" s="8">
         <v>1E-3</v>
       </c>
-      <c r="H133" s="8">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="B134" s="15" t="s">
         <v>81</v>
@@ -5748,13 +5105,10 @@
       <c r="G134" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H134" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="B135" s="1">
         <v>91203</v>
@@ -5774,13 +5128,10 @@
       <c r="G135" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H135" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="B136" s="1">
         <v>7440020</v>
@@ -5800,13 +5151,10 @@
       <c r="G136" s="13">
         <v>52.006539397853551</v>
       </c>
-      <c r="H136" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="B137" s="1">
         <v>7440020</v>
@@ -5826,13 +5174,10 @@
       <c r="G137" s="13">
         <v>140</v>
       </c>
-      <c r="H137" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="B138" s="1">
         <v>14797558</v>
@@ -5852,11 +5197,8 @@
       <c r="G138" s="8">
         <v>10000</v>
       </c>
-      <c r="H138" s="14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>377</v>
       </c>
@@ -5878,11 +5220,8 @@
       <c r="G139" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H139" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>254</v>
       </c>
@@ -5904,11 +5243,8 @@
       <c r="G140" s="8">
         <v>14</v>
       </c>
-      <c r="H140" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>354</v>
       </c>
@@ -5930,13 +5266,10 @@
       <c r="G141" s="8">
         <v>7.9000000000000001E-4</v>
       </c>
-      <c r="H141" s="8">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="B142" s="1">
         <v>62759</v>
@@ -5956,11 +5289,8 @@
       <c r="G142" s="8">
         <v>6.8000000000000005E-4</v>
       </c>
-      <c r="H142" s="14" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>387</v>
       </c>
@@ -5982,13 +5312,10 @@
       <c r="G143" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H143" s="8">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="B144" s="1">
         <v>621647</v>
@@ -6008,13 +5335,10 @@
       <c r="G144" s="8">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="H144" s="14" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="B145" s="1">
         <v>86306</v>
@@ -6034,11 +5358,8 @@
       <c r="G145" s="8">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H145" s="14" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>356</v>
       </c>
@@ -6060,13 +5381,10 @@
       <c r="G146" s="8">
         <v>1.6E-2</v>
       </c>
-      <c r="H146" s="8">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="B147" s="1">
         <v>95578</v>
@@ -6086,13 +5404,10 @@
       <c r="G147" s="8">
         <v>14</v>
       </c>
-      <c r="H147" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="B148" s="1">
         <v>95501</v>
@@ -6112,13 +5427,10 @@
       <c r="G148" s="8">
         <v>110</v>
       </c>
-      <c r="H148" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="B149" s="1">
         <v>88755</v>
@@ -6138,13 +5450,10 @@
       <c r="G149" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H149" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="B150" s="1">
         <v>72548</v>
@@ -6164,13 +5473,10 @@
       <c r="G150" s="8">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="H150" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="B151" s="1">
         <v>72559</v>
@@ -6190,13 +5496,10 @@
       <c r="G151" s="8">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="H151" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="B152" s="1">
         <v>50293</v>
@@ -6216,11 +5519,8 @@
       <c r="G152" s="8">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="H152" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>322</v>
       </c>
@@ -6242,13 +5542,10 @@
       <c r="G153" s="8">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="H153" s="8">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="B154" s="1">
         <v>101553</v>
@@ -6268,13 +5565,10 @@
       <c r="G154" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H154" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="B155" s="1">
         <v>59507</v>
@@ -6294,13 +5588,10 @@
       <c r="G155" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H155" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="B156" s="1">
         <v>7005723</v>
@@ -6320,13 +5611,10 @@
       <c r="G156" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H156" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="B157" s="1">
         <v>106467</v>
@@ -6346,11 +5634,8 @@
       <c r="G157" s="8">
         <v>16</v>
       </c>
-      <c r="H157" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>262</v>
       </c>
@@ -6372,11 +5657,8 @@
       <c r="G158" s="8">
         <v>0.15</v>
       </c>
-      <c r="H158" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>172</v>
       </c>
@@ -6398,11 +5680,8 @@
       <c r="G159" s="8">
         <v>0.15</v>
       </c>
-      <c r="H159" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>264</v>
       </c>
@@ -6424,11 +5703,8 @@
       <c r="G160" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H160" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>174</v>
       </c>
@@ -6450,11 +5726,8 @@
       <c r="G161" s="8">
         <v>9400</v>
       </c>
-      <c r="H161" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>396</v>
       </c>
@@ -6476,11 +5749,8 @@
       <c r="G162" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H162" s="8">
-        <v>420.1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>388</v>
       </c>
@@ -6502,13 +5772,10 @@
       <c r="G163" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H163" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="B164" s="1">
         <v>100027</v>
@@ -6528,11 +5795,8 @@
       <c r="G164" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H164" s="8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>266</v>
       </c>
@@ -6554,13 +5818,10 @@
       <c r="G165" s="8">
         <v>290</v>
       </c>
-      <c r="H165" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="B166" s="1">
         <v>7782492</v>
@@ -6580,13 +5841,10 @@
       <c r="G166" s="13">
         <v>4.2412000000000001</v>
       </c>
-      <c r="H166" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="B167" s="1">
         <v>7782492</v>
@@ -6606,13 +5864,10 @@
       <c r="G167" s="13">
         <v>120</v>
       </c>
-      <c r="H167" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="B168" s="1">
         <v>7440224</v>
@@ -6632,13 +5887,10 @@
       <c r="G168" s="13">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H168" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="B169" s="1">
         <v>7440224</v>
@@ -6658,11 +5910,8 @@
       <c r="G169" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H169" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>378</v>
       </c>
@@ -6684,11 +5933,8 @@
       <c r="G170" s="8">
         <v>10</v>
       </c>
-      <c r="H170" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>65</v>
       </c>
@@ -6710,11 +5956,8 @@
       <c r="G171" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H171" s="8" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>389</v>
       </c>
@@ -6736,11 +5979,8 @@
       <c r="G172" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H172" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>391</v>
       </c>
@@ -6762,11 +6002,8 @@
       <c r="G173" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H173" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>392</v>
       </c>
@@ -6788,11 +6025,8 @@
       <c r="G174" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H174" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>393</v>
       </c>
@@ -6814,11 +6048,8 @@
       <c r="G175" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H175" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>394</v>
       </c>
@@ -6840,11 +6071,8 @@
       <c r="G176" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H176" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>395</v>
       </c>
@@ -6866,11 +6094,8 @@
       <c r="G177" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H177" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>138</v>
       </c>
@@ -6892,13 +6117,10 @@
       <c r="G178" s="8">
         <v>0.24</v>
       </c>
-      <c r="H178" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="B179" s="1">
         <v>7440280</v>
@@ -6918,13 +6140,10 @@
       <c r="G179" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="H179" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="B180" s="15" t="s">
         <v>85</v>
@@ -6944,13 +6163,10 @@
       <c r="G180" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H180" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="B181" s="15" t="s">
         <v>87</v>
@@ -6970,11 +6186,8 @@
       <c r="G181" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H181" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>140</v>
       </c>
@@ -6996,11 +6209,8 @@
       <c r="G182" s="8">
         <v>720</v>
       </c>
-      <c r="H182" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>326</v>
       </c>
@@ -7022,11 +6232,8 @@
       <c r="G183" s="8">
         <v>6.3999999999999997E-6</v>
       </c>
-      <c r="H183" s="8" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>324</v>
       </c>
@@ -7048,13 +6255,10 @@
       <c r="G184" s="8">
         <v>2.8E-5</v>
       </c>
-      <c r="H184" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="B185" s="1">
         <v>156605</v>
@@ -7074,13 +6278,10 @@
       <c r="G185" s="8">
         <v>120</v>
       </c>
-      <c r="H185" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="B186" s="1">
         <v>75252</v>
@@ -7100,11 +6301,8 @@
       <c r="G186" s="8">
         <v>3.3</v>
       </c>
-      <c r="H186" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>397</v>
       </c>
@@ -7126,13 +6324,10 @@
       <c r="G187" s="8">
         <v>6.3E-2</v>
       </c>
-      <c r="H187" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="B188" s="1">
         <v>79016</v>
@@ -7152,13 +6347,10 @@
       <c r="G188" s="8">
         <v>1.4</v>
       </c>
-      <c r="H188" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="B189" s="1">
         <v>75014</v>
@@ -7178,13 +6370,10 @@
       <c r="G189" s="8">
         <v>2.3E-2</v>
       </c>
-      <c r="H189" s="8">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="B190" s="1">
         <v>7440666</v>
@@ -7204,13 +6393,10 @@
       <c r="G190" s="13">
         <v>117.18045413475284</v>
       </c>
-      <c r="H190" s="8">
-        <v>200.8</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="B191" s="1">
         <v>7440666</v>
@@ -7230,48 +6416,9 @@
       <c r="G191" s="13">
         <v>2100</v>
       </c>
-      <c r="H191" s="8">
-        <v>200.8</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H191">
-    <sortState ref="A2:H191">
-      <sortCondition ref="A1:A191"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="H2:H34 H36:H38 H41:H191">
-    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="&gt;WQC">
-      <formula>NOT(ISERROR(SEARCH("&gt;WQC",H2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="16" operator="containsText" text="ok">
-      <formula>NOT(ISERROR(SEARCH("ok",H2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="&gt;WQC">
-      <formula>NOT(ISERROR(SEARCH("&gt;WQC",H39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="ok">
-      <formula>NOT(ISERROR(SEARCH("ok",H39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="&gt;WQC">
-      <formula>NOT(ISERROR(SEARCH("&gt;WQC",H40)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ok">
-      <formula>NOT(ISERROR(SEARCH("ok",H40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="&gt;WQC">
-      <formula>NOT(ISERROR(SEARCH("&gt;WQC",H35)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="ok">
-      <formula>NOT(ISERROR(SEARCH("ok",H35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
+  <autoFilter ref="A1:G191"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2_21_19_QLs.xlsx
+++ b/2_21_19_QLs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Permit Job\R_Scripts\EDD_Data_QC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\R_Scripts\EDD_Data_QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$200</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="518">
   <si>
     <t>Nitrates-Nitrite (as N)</t>
   </si>
@@ -1554,6 +1554,33 @@
   </si>
   <si>
     <t>p-Nitrophenol</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Temperature, water</t>
+  </si>
+  <si>
+    <t>Total hardness</t>
+  </si>
+  <si>
+    <t>Organic carbon, Dissolved</t>
+  </si>
+  <si>
+    <t>Sodium, Total Recoverable</t>
+  </si>
+  <si>
+    <t>Potassium, Total Recoverable</t>
+  </si>
+  <si>
+    <t>Calcium, Total Recoverable</t>
+  </si>
+  <si>
+    <t>Aluminum, Dissolved</t>
   </si>
 </sst>
 </file>
@@ -1688,48 +1715,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_RPA" xfId="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2005,11 +1991,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V191"/>
+  <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B192" sqref="B192:G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6417,8 +6403,215 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G191"/>
+  <autoFilter ref="A1:G200"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2_21_19_QLs.xlsx
+++ b/2_21_19_QLs.xlsx
@@ -1994,8 +1994,8 @@
   <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B192" sqref="B192:G200"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,108 +2035,108 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B2" s="1">
-        <v>959988</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>299</v>
+        <v>71556</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="E2" s="8">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G2" s="8">
-        <v>5.6000000000000001E-2</v>
+      <c r="G2" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B3" s="1">
-        <v>319846</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>277</v>
+        <v>79345</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="E3" s="8">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G3" s="8">
-        <v>4.4999999999999999E-4</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B4" s="1">
-        <v>33213659</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>301</v>
+        <v>79005</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="E4" s="8">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G4" s="8">
-        <v>5.6000000000000001E-2</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B5" s="1">
-        <v>319857</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>75343</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="E5" s="8">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G5" s="8">
-        <v>1.6000000000000001E-3</v>
+      <c r="G5" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B6" s="1">
-        <v>71556</v>
+        <v>75354</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E6" s="8">
         <v>0.5</v>
@@ -2144,68 +2144,68 @@
       <c r="F6" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>60</v>
+      <c r="G6" s="8">
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>442</v>
+        <v>270</v>
       </c>
       <c r="B7" s="1">
-        <v>79345</v>
+        <v>95943</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.5</v>
+        <v>271</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G7" s="8">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B8" s="1">
-        <v>79005</v>
+        <v>120821</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>144</v>
+        <v>268</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.5</v>
+        <v>269</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G8" s="8">
-        <v>0.44</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>448</v>
+        <v>494</v>
       </c>
       <c r="B9" s="1">
-        <v>75343</v>
+        <v>95501</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E9" s="8">
         <v>0.5</v>
@@ -2213,22 +2213,22 @@
       <c r="F9" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>60</v>
+      <c r="G9" s="8">
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B10" s="1">
-        <v>75354</v>
+        <v>107062</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E10" s="8">
         <v>0.5</v>
@@ -2237,90 +2237,90 @@
         <v>364</v>
       </c>
       <c r="G10" s="8">
-        <v>230</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="B11" s="1">
-        <v>608731</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>275</v>
+        <v>78875</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="E11" s="8">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G11" s="8">
-        <v>1.4E-3</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>270</v>
+        <v>453</v>
       </c>
       <c r="B12" s="1">
-        <v>95943</v>
+        <v>122667</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E12" s="12">
+        <v>235</v>
+      </c>
+      <c r="E12" s="13">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G12" s="8">
-        <v>0.11</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B13" s="1">
-        <v>120821</v>
+        <v>156605</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>268</v>
+        <v>120</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.5</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G13" s="8">
-        <v>6.4</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="B14" s="1">
-        <v>107062</v>
+        <v>541731</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E14" s="8">
         <v>0.5</v>
@@ -2329,21 +2329,21 @@
         <v>364</v>
       </c>
       <c r="G14" s="8">
-        <v>0.35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>452</v>
+        <v>371</v>
       </c>
       <c r="B15" s="1">
-        <v>78875</v>
+        <v>542756</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E15" s="8">
         <v>0.5</v>
@@ -2352,136 +2352,136 @@
         <v>364</v>
       </c>
       <c r="G15" s="8">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="B16" s="1">
-        <v>122667</v>
+        <v>106467</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E16" s="13">
-        <v>5</v>
+        <v>115</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.5</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G16" s="8">
-        <v>1.4E-2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="B17" s="1">
-        <v>542756</v>
+        <v>378</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>126</v>
+        <v>346</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.5</v>
+        <v>347</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G17" s="8">
-        <v>0.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>351</v>
+        <v>454</v>
+      </c>
+      <c r="B18" s="1">
+        <v>95954</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>350</v>
+        <v>176</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1.0000000000000001E-5</v>
+        <v>177</v>
+      </c>
+      <c r="E18" s="13">
+        <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G18" s="8">
-        <v>5.1E-10</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B19" s="1">
-        <v>95954</v>
+        <v>88062</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" s="13">
-        <v>2</v>
+        <v>179</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G19" s="8">
-        <v>330</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="B20" s="1">
-        <v>88062</v>
+        <v>379</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>178</v>
+        <v>348</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E20" s="12">
+        <v>349</v>
+      </c>
+      <c r="E20" s="13">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G20" s="8">
-        <v>0.23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>349</v>
+        <v>478</v>
+      </c>
+      <c r="B21" s="1">
+        <v>120832</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>348</v>
+        <v>160</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>349</v>
+        <v>161</v>
       </c>
       <c r="E21" s="13">
         <v>1</v>
@@ -2490,44 +2490,44 @@
         <v>364</v>
       </c>
       <c r="G21" s="8">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B22" s="1">
-        <v>120832</v>
+        <v>105679</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E22" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G22" s="8">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B23" s="1">
-        <v>105679</v>
+        <v>51285</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E23" s="13">
         <v>5</v>
@@ -2536,44 +2536,44 @@
         <v>364</v>
       </c>
       <c r="G23" s="8">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B24" s="1">
-        <v>51285</v>
+        <v>121142</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="13">
-        <v>5</v>
+        <v>231</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G24" s="8">
-        <v>62</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B25" s="1">
-        <v>121142</v>
+        <v>606202</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -2581,25 +2581,25 @@
       <c r="F25" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G25" s="8">
-        <v>8.4000000000000005E-2</v>
+      <c r="G25" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="B26" s="1">
-        <v>606202</v>
+        <v>110758</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E26" s="12">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="E26" s="8">
+        <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>364</v>
@@ -2610,39 +2610,39 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="B27" s="1">
-        <v>110758</v>
+        <v>91587</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>104</v>
+        <v>212</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="8">
-        <v>10</v>
+        <v>213</v>
+      </c>
+      <c r="E27" s="13">
+        <v>1</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>60</v>
+      <c r="G27" s="8">
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="B28" s="1">
-        <v>91587</v>
+        <v>95578</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="E28" s="13">
         <v>1</v>
@@ -2651,21 +2651,21 @@
         <v>364</v>
       </c>
       <c r="G28" s="8">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B29" s="1">
-        <v>91941</v>
+        <v>88755</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>225</v>
+        <v>169</v>
       </c>
       <c r="E29" s="13">
         <v>2</v>
@@ -2673,68 +2673,68 @@
       <c r="F29" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G29" s="8">
-        <v>2.7000000000000001E-3</v>
+      <c r="G29" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B30" s="1">
-        <v>534521</v>
+        <v>91941</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="E30" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G30" s="8">
-        <v>9.1999999999999993</v>
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>180</v>
+        <v>484</v>
       </c>
       <c r="B31" s="1">
-        <v>83329</v>
+        <v>534521</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E31" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G31" s="8">
-        <v>95</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>182</v>
+        <v>475</v>
       </c>
       <c r="B32" s="1">
-        <v>208968</v>
+        <v>101553</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="E32" s="13">
         <v>1</v>
@@ -2748,39 +2748,39 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>88</v>
+        <v>476</v>
       </c>
       <c r="B33" s="1">
-        <v>107028</v>
+        <v>7005723</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>88</v>
+        <v>214</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="E33" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G33" s="8">
-        <v>0.88</v>
+      <c r="G33" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>91</v>
+        <v>508</v>
+      </c>
+      <c r="B34" s="1">
+        <v>100027</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="E34" s="13">
         <v>5</v>
@@ -2788,51 +2788,51 @@
       <c r="F34" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G34" s="8">
-        <v>1.7999999999999999E-2</v>
+      <c r="G34" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="B35" s="1">
-        <v>309002</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0.01</v>
+        <v>83329</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G35" s="8">
-        <v>5.0000000000000004E-6</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>60</v>
+        <v>182</v>
+      </c>
+      <c r="B36" s="1">
+        <v>208968</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>360</v>
+        <v>182</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="8">
-        <v>5</v>
+        <v>183</v>
+      </c>
+      <c r="E36" s="13">
+        <v>1</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>60</v>
@@ -2840,91 +2840,91 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
+      </c>
+      <c r="B37" s="1">
+        <v>107028</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="8">
-        <v>50</v>
+        <v>89</v>
+      </c>
+      <c r="E37" s="13">
+        <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>60</v>
+      <c r="G37" s="8">
+        <v>0.88</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" s="1">
-        <v>120127</v>
+        <v>90</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>185</v>
+        <v>91</v>
       </c>
       <c r="E38" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G38" s="8">
-        <v>2900</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>412</v>
+        <v>272</v>
       </c>
       <c r="B39" s="1">
-        <v>7440360</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="12">
-        <v>0.5</v>
+        <v>309002</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.01</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G39" s="13">
-        <v>5.0999999999999996</v>
+      <c r="G39" s="8">
+        <v>5.0000000000000004E-6</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B40" s="1">
-        <v>12674112</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>329</v>
+        <v>372</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="E40" s="8">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>60</v>
@@ -2932,19 +2932,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B41" s="1">
-        <v>11104282</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>331</v>
+        <v>411</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E41" s="8">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>364</v>
@@ -2955,269 +2955,269 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>459</v>
+        <v>184</v>
       </c>
       <c r="B42" s="1">
-        <v>11141165</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E42" s="8">
-        <v>0.5</v>
+        <v>120127</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="13">
+        <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G42" s="8" t="s">
-        <v>60</v>
+      <c r="G42" s="8">
+        <v>2900</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>460</v>
+        <v>412</v>
       </c>
       <c r="B43" s="1">
-        <v>53469219</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E43" s="8">
-        <v>0.5</v>
+        <v>7440360</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.1</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>60</v>
+      <c r="G43" s="13">
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B44" s="1">
-        <v>12672296</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E44" s="8">
-        <v>0.5</v>
+        <v>373</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="13">
+        <v>1</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>60</v>
+      <c r="G44" s="13">
+        <v>2.1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B45" s="1">
-        <v>11097691</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E45" s="8">
-        <v>0.5</v>
+        <v>435</v>
+      </c>
+      <c r="B45" s="2">
+        <v>7440382</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="13">
+        <v>1</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G45" s="8" t="s">
-        <v>60</v>
+      <c r="G45" s="13">
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B46" s="1">
-        <v>11096825</v>
+        <v>413</v>
+      </c>
+      <c r="B46" s="2">
+        <v>7440382</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>340</v>
+        <v>4</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E46" s="8">
+        <v>5</v>
+      </c>
+      <c r="E46" s="12">
         <v>0.5</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B47" s="2">
-        <v>7440382</v>
+        <v>186</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>9</v>
+        <v>187</v>
       </c>
       <c r="E47" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G47" s="13">
-        <v>150</v>
+      <c r="G47" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>60</v>
+        <v>414</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="13">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0.1</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G48" s="13">
-        <v>2.1</v>
+      <c r="G48" s="8">
+        <v>1000</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B49" s="2">
-        <v>7440382</v>
+        <v>92</v>
+      </c>
+      <c r="B49" s="1">
+        <v>71432</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="12">
+        <v>93</v>
+      </c>
+      <c r="E49" s="8">
         <v>0.5</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>60</v>
+      <c r="G49" s="8">
+        <v>0.44</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>485</v>
+        <v>188</v>
       </c>
       <c r="B50" s="1">
-        <v>86500</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>311</v>
+        <v>92875</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E50" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G50" s="8">
-        <v>0.01</v>
+        <v>1.8E-5</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>187</v>
+        <v>486</v>
+      </c>
+      <c r="B51" s="1">
+        <v>56553</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E51" s="13">
-        <v>5</v>
+        <v>191</v>
+      </c>
+      <c r="E51" s="12">
+        <v>0.5</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G51" s="8" t="s">
-        <v>60</v>
+      <c r="G51" s="8">
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>73</v>
+        <v>487</v>
+      </c>
+      <c r="B52" s="1">
+        <v>50328</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="E52" s="12">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G52" s="8">
-        <v>1000</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>486</v>
+        <v>194</v>
       </c>
       <c r="B53" s="1">
-        <v>56553</v>
+        <v>205992</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E53" s="12">
         <v>0.5</v>
@@ -3231,157 +3231,157 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>488</v>
       </c>
       <c r="B54" s="1">
-        <v>71432</v>
+        <v>191242</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E54" s="8">
-        <v>0.5</v>
+        <v>197</v>
+      </c>
+      <c r="E54" s="12">
+        <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G54" s="8">
-        <v>0.44</v>
+      <c r="G54" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E55" s="8">
-        <v>0.01</v>
+        <v>489</v>
+      </c>
+      <c r="B55" s="1">
+        <v>207089</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55" s="12">
+        <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G55" s="8">
-        <v>1.6000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E56" s="8">
-        <v>0.01</v>
+        <v>415</v>
+      </c>
+      <c r="B56" s="1">
+        <v>7440417</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="12">
+        <v>0.1</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>188</v>
+        <v>439</v>
       </c>
       <c r="B57" s="1">
-        <v>92875</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>189</v>
+        <v>319846</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="E57" s="8">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G57" s="8">
-        <v>1.8E-5</v>
+        <v>4.4999999999999999E-4</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>194</v>
+        <v>440</v>
       </c>
       <c r="B58" s="1">
-        <v>205992</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E58" s="12">
-        <v>0.5</v>
+        <v>319857</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" s="8">
+        <v>0.01</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G58" s="8">
-        <v>1.2999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B59" s="1">
-        <v>50328</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" s="12">
-        <v>0.5</v>
+        <v>374</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0.01</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G59" s="8">
-        <v>1.2999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="B60" s="1">
-        <v>191242</v>
-      </c>
-      <c r="C60" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E60" s="12">
-        <v>1</v>
+        <v>380</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0.01</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>364</v>
@@ -3392,94 +3392,94 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B61" s="1">
-        <v>207089</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E61" s="12">
-        <v>1</v>
+        <v>58899</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E61" s="8">
+        <v>0.01</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G61" s="8">
-        <v>1.2999999999999999E-3</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="B62" s="1">
-        <v>7440417</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E62" s="12">
-        <v>0.1</v>
+        <v>608731</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E62" s="8">
+        <v>0.01</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G62" s="13" t="s">
-        <v>60</v>
+      <c r="G62" s="8">
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="B63" s="1">
-        <v>108601</v>
+        <v>111911</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E63" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G63" s="8">
-        <v>1200</v>
+      <c r="G63" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="B64" s="1">
-        <v>111911</v>
+        <v>117817</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E64" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G64" s="8" t="s">
-        <v>60</v>
+      <c r="G64" s="8">
+        <v>0.2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3507,42 +3507,42 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>151</v>
+        <v>464</v>
+      </c>
+      <c r="B66" s="1">
+        <v>108601</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" s="12">
-        <v>0.5</v>
+        <v>205</v>
+      </c>
+      <c r="E66" s="13">
+        <v>2</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G66" s="8" t="s">
-        <v>60</v>
+      <c r="G66" s="8">
+        <v>1200</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="8">
-        <v>50</v>
+        <v>151</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0.5</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>364</v>
@@ -3553,19 +3553,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>61</v>
+        <v>416</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E68" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>364</v>
@@ -3576,200 +3576,200 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B69" s="1">
-        <v>85687</v>
+        <v>61</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" s="13">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="E69" s="8">
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G69" s="8">
-        <v>190</v>
+      <c r="G69" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="B70" s="1">
-        <v>7440439</v>
+        <v>75252</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="12">
-        <v>0.1</v>
+        <v>95</v>
+      </c>
+      <c r="E70" s="8">
+        <v>0.5</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G70" s="13">
-        <v>0.24599634148460026</v>
+      <c r="G70" s="8">
+        <v>3.3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="B71" s="1">
-        <v>7440439</v>
+        <v>85687</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="12">
-        <v>0.1</v>
+        <v>211</v>
+      </c>
+      <c r="E71" s="13">
+        <v>1</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G71" s="13">
-        <v>3.9221186109975661</v>
+      <c r="G71" s="8">
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
       <c r="B72" s="1">
-        <v>56235</v>
+        <v>7440439</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" s="8">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0.1</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G72" s="8">
-        <v>0.1</v>
+      <c r="G72" s="13">
+        <v>0.24599634148460026</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>284</v>
+        <v>417</v>
       </c>
       <c r="B73" s="1">
-        <v>57749</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E73" s="8">
+        <v>7440439</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="12">
         <v>0.1</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G73" s="8">
-        <v>8.1000000000000004E-5</v>
+      <c r="G73" s="13">
+        <v>3.9221186109975661</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>343</v>
+        <v>467</v>
+      </c>
+      <c r="B74" s="1">
+        <v>56235</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>342</v>
+        <v>96</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>343</v>
+        <v>97</v>
       </c>
       <c r="E74" s="8">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G74" s="8" t="s">
-        <v>60</v>
+      <c r="G74" s="8">
+        <v>0.1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>284</v>
       </c>
       <c r="B75" s="1">
-        <v>108907</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>99</v>
+        <v>57749</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="E75" s="8">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G75" s="8">
-        <v>74</v>
+        <v>8.1000000000000004E-5</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E76" s="8">
         <v>100</v>
       </c>
-      <c r="B76" s="1">
-        <v>124481</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E76" s="8">
-        <v>0.5</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G76" s="8">
-        <v>0.31</v>
+      <c r="G76" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B77" s="1">
-        <v>75003</v>
+        <v>108907</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E77" s="8">
         <v>0.5</v>
@@ -3777,22 +3777,22 @@
       <c r="F77" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G77" s="8" t="s">
-        <v>60</v>
+      <c r="G77" s="8">
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B78" s="1">
-        <v>67663</v>
+        <v>124481</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E78" s="8">
         <v>0.5</v>
@@ -3801,24 +3801,24 @@
         <v>364</v>
       </c>
       <c r="G78" s="8">
-        <v>260</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>375</v>
+        <v>102</v>
       </c>
       <c r="B79" s="1">
-        <v>74873</v>
+        <v>75003</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E79" s="13">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="E79" s="8">
+        <v>0.5</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>364</v>
@@ -3829,88 +3829,88 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="B80" s="1">
-        <v>2921882</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>287</v>
+        <v>67663</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="E80" s="8">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G80" s="8">
-        <v>4.1000000000000002E-2</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>409</v>
+        <v>286</v>
       </c>
       <c r="B81" s="1">
-        <v>16065831</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>60</v>
+        <v>2921882</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E81" s="8">
+        <v>0.01</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G81" s="13">
-        <v>74.114522080141811</v>
+      <c r="G81" s="8">
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B82" s="1">
-        <v>18540299</v>
+        <v>7440473</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" s="13">
+        <v>18</v>
+      </c>
+      <c r="E82" s="8">
         <v>2</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G82" s="13">
-        <v>10.581999999999999</v>
+      <c r="G82" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="B83" s="1">
         <v>7440473</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="8">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="E83" s="12">
+        <v>0.4</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>364</v>
@@ -3921,108 +3921,108 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B84" s="1">
-        <v>7440473</v>
+        <v>16065831</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" s="12">
-        <v>0.4</v>
+        <v>20</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G84" s="13" t="s">
-        <v>60</v>
+      <c r="G84" s="13">
+        <v>74.114522080141811</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>216</v>
+        <v>410</v>
       </c>
       <c r="B85" s="1">
-        <v>218019</v>
+        <v>18540299</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>216</v>
+        <v>21</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E85" s="12">
-        <v>0.5</v>
+        <v>22</v>
+      </c>
+      <c r="E85" s="13">
+        <v>2</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G85" s="8">
-        <v>1.2999999999999999E-3</v>
+      <c r="G85" s="13">
+        <v>10.581999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>77</v>
+        <v>216</v>
+      </c>
+      <c r="B86" s="1">
+        <v>218019</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E86" s="8">
-        <v>5</v>
+        <v>217</v>
+      </c>
+      <c r="E86" s="12">
+        <v>0.5</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G86" s="8" t="s">
-        <v>60</v>
+      <c r="G86" s="8">
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B87" s="1">
-        <v>7440508</v>
+        <v>419</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="13">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="E87" s="8">
+        <v>5</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G87" s="13" t="s">
+      <c r="G87" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="B88" s="1">
         <v>7440508</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E88" s="13">
         <v>2</v>
@@ -4030,31 +4030,31 @@
       <c r="F88" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G88" s="13">
-        <v>11.823841083208801</v>
+      <c r="G88" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B89" s="2">
-        <v>57125</v>
+        <v>420</v>
+      </c>
+      <c r="B89" s="1">
+        <v>7440508</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E89" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G89" s="13">
-        <v>130</v>
+        <v>11.823841083208801</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4082,177 +4082,177 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B91" s="1">
-        <v>8065483</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>289</v>
+        <v>434</v>
+      </c>
+      <c r="B91" s="2">
+        <v>57125</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="E91" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G91" s="8">
-        <v>0.1</v>
+      <c r="G91" s="13">
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="B92" s="1">
-        <v>117817</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E92" s="13">
-        <v>1</v>
+        <v>72548</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E92" s="8">
+        <v>0.01</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G92" s="8">
-        <v>0.2</v>
+        <v>3.1000000000000001E-5</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B93" s="1">
-        <v>53703</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E93" s="12">
-        <v>0.5</v>
+        <v>72559</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E93" s="8">
+        <v>0.01</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G93" s="8">
-        <v>1.2999999999999999E-3</v>
+        <v>2.1999999999999999E-5</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
       <c r="B94" s="1">
-        <v>84742</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E94" s="13">
-        <v>1</v>
+        <v>50293</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E94" s="8">
+        <v>0.01</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G94" s="8">
-        <v>400</v>
+        <v>2.1999999999999999E-5</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>288</v>
       </c>
       <c r="B95" s="1">
-        <v>75274</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E95" s="8">
-        <v>0.5</v>
+        <v>8065483</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E95" s="13">
+        <v>1</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G95" s="8">
-        <v>0.42</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>153</v>
+        <v>491</v>
+      </c>
+      <c r="B96" s="1">
+        <v>53703</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E96" s="13">
-        <v>1</v>
+        <v>223</v>
+      </c>
+      <c r="E96" s="12">
+        <v>0.5</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G96" s="8" t="s">
-        <v>60</v>
+      <c r="G96" s="8">
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>296</v>
+        <v>108</v>
       </c>
       <c r="B97" s="1">
-        <v>60571</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>297</v>
+        <v>75274</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="E97" s="8">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G97" s="8">
-        <v>5.3000000000000001E-6</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B98" s="1">
-        <v>84662</v>
+        <v>382</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="E98" s="13">
         <v>1</v>
@@ -4260,45 +4260,45 @@
       <c r="F98" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G98" s="8">
-        <v>3800</v>
+      <c r="G98" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="B99" s="1">
-        <v>131113</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E99" s="13">
-        <v>1</v>
+        <v>60571</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E99" s="8">
+        <v>0.01</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G99" s="8">
-        <v>84000</v>
+        <v>5.3000000000000001E-6</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B100" s="1">
-        <v>117840</v>
+        <v>84662</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E100" s="13">
         <v>1</v>
@@ -4306,229 +4306,229 @@
       <c r="F100" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G100" s="8" t="s">
-        <v>60</v>
+      <c r="G100" s="8">
+        <v>3800</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E101" s="8">
-        <v>0.01</v>
+        <v>228</v>
+      </c>
+      <c r="B101" s="1">
+        <v>131113</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E101" s="13">
+        <v>1</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G101" s="8">
-        <v>5.6000000000000001E-2</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B102" s="1">
-        <v>1031078</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E102" s="8">
-        <v>0.01</v>
+        <v>84742</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E102" s="13">
+        <v>1</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G102" s="8">
-        <v>8.5</v>
+        <v>400</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="B103" s="1">
-        <v>72208</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E103" s="8">
-        <v>0.01</v>
+        <v>117840</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" s="13">
+        <v>1</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G103" s="8">
-        <v>2.4E-2</v>
+      <c r="G103" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B104" s="1">
-        <v>7421934</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>309</v>
+        <v>383</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>351</v>
       </c>
       <c r="E104" s="8">
-        <v>0.01</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G104" s="8">
-        <v>0.03</v>
+        <v>5.1E-10</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B105" s="1">
-        <v>100414</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>129</v>
+        <v>304</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="E105" s="8">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G105" s="8">
-        <v>160</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>236</v>
+        <v>438</v>
       </c>
       <c r="B106" s="1">
-        <v>206440</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E106" s="13">
-        <v>2</v>
+        <v>959988</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E106" s="8">
+        <v>0.01</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G106" s="8">
-        <v>14</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>238</v>
+        <v>437</v>
       </c>
       <c r="B107" s="1">
-        <v>86737</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E107" s="13">
-        <v>1</v>
+        <v>33213659</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E107" s="8">
+        <v>0.01</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G107" s="8">
-        <v>390</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>64</v>
+        <v>470</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1031078</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="E108" s="8">
-        <v>200</v>
+        <v>0.01</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G108" s="8" t="s">
-        <v>60</v>
+      <c r="G108" s="8">
+        <v>8.5</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E109" s="12">
-        <v>0.5</v>
+        <v>306</v>
+      </c>
+      <c r="B109" s="1">
+        <v>72208</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E109" s="8">
+        <v>0.01</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G109" s="8" t="s">
-        <v>60</v>
+      <c r="G109" s="8">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>312</v>
+        <v>471</v>
       </c>
       <c r="B110" s="1">
-        <v>76448</v>
+        <v>7421934</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E110" s="8">
         <v>0.01</v>
@@ -4537,251 +4537,251 @@
         <v>364</v>
       </c>
       <c r="G110" s="8">
-        <v>7.9000000000000006E-6</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>472</v>
+        <v>128</v>
       </c>
       <c r="B111" s="1">
-        <v>1024573</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>315</v>
+        <v>100414</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="E111" s="8">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G111" s="8">
-        <v>3.8999999999999999E-6</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B112" s="1">
-        <v>118741</v>
+        <v>206440</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E112" s="12">
-        <v>1</v>
+        <v>237</v>
+      </c>
+      <c r="E112" s="13">
+        <v>2</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G112" s="8">
-        <v>2.9E-5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B113" s="1">
-        <v>87683</v>
+        <v>86737</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E113" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G113" s="8">
-        <v>0.36</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B114" s="1">
-        <v>77474</v>
+        <v>63</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>244</v>
+        <v>63</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E114" s="13">
-        <v>2</v>
+        <v>64</v>
+      </c>
+      <c r="E114" s="8">
+        <v>200</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G114" s="8">
-        <v>30</v>
+      <c r="G114" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>246</v>
+        <v>485</v>
       </c>
       <c r="B115" s="1">
-        <v>67721</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E115" s="13">
+        <v>86500</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E115" s="8">
         <v>1</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G115" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>345</v>
+        <v>312</v>
+      </c>
+      <c r="B116" s="1">
+        <v>76448</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="E116" s="8">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G116" s="8">
-        <v>2</v>
+        <v>7.9000000000000006E-6</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="B117" s="1">
-        <v>193395</v>
-      </c>
-      <c r="C117" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E117" s="12">
-        <v>0.5</v>
+        <v>1024573</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E117" s="8">
+        <v>0.01</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G117" s="8">
-        <v>1.2999999999999999E-3</v>
+        <v>3.8999999999999999E-6</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>60</v>
+        <v>240</v>
+      </c>
+      <c r="B118" s="1">
+        <v>118741</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>60</v>
+        <v>241</v>
+      </c>
+      <c r="E118" s="12">
+        <v>1</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="G118" s="8">
+        <v>2.9E-5</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>421</v>
+        <v>242</v>
       </c>
       <c r="B119" s="1">
-        <v>7439896</v>
+        <v>87683</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E119" s="8">
-        <v>100</v>
+        <v>243</v>
+      </c>
+      <c r="E119" s="13">
+        <v>2</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G119" s="13">
-        <v>1000</v>
+      <c r="G119" s="8">
+        <v>0.36</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B120" s="1">
-        <v>78591</v>
+        <v>77474</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E120" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G120" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>404</v>
+        <v>246</v>
       </c>
       <c r="B121" s="1">
-        <v>7439921</v>
+        <v>67721</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="E121" s="13">
         <v>1</v>
@@ -4789,301 +4789,301 @@
       <c r="F121" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G121" s="13">
-        <v>2.5166437242964461</v>
+      <c r="G121" s="8">
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B122" s="1">
-        <v>7439921</v>
+        <v>384</v>
+      </c>
+      <c r="B122" s="16" t="s">
+        <v>345</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>29</v>
+        <v>344</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E122" s="13">
-        <v>1</v>
+        <v>345</v>
+      </c>
+      <c r="E122" s="8">
+        <v>100</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G122" s="13" t="s">
-        <v>60</v>
+      <c r="G122" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B123" s="1">
-        <v>58899</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E123" s="8">
-        <v>0.01</v>
+        <v>193395</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E123" s="12">
+        <v>0.5</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G123" s="8">
-        <v>0.08</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>79</v>
+        <v>421</v>
+      </c>
+      <c r="B124" s="1">
+        <v>7439896</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E124" s="8">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G124" s="8" t="s">
-        <v>60</v>
+      <c r="G124" s="13">
+        <v>1000</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>316</v>
+        <v>250</v>
       </c>
       <c r="B125" s="1">
-        <v>121755</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E125" s="8">
-        <v>0.2</v>
+        <v>78591</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E125" s="13">
+        <v>5</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G125" s="8">
-        <v>0.1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>83</v>
+        <v>404</v>
+      </c>
+      <c r="B126" s="1">
+        <v>7439921</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E126" s="17">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="E126" s="13">
+        <v>1</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G126" s="8" t="s">
-        <v>60</v>
+      <c r="G126" s="13">
+        <v>2.5166437242964461</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>500</v>
+        <v>422</v>
       </c>
       <c r="B127" s="1">
-        <v>541731</v>
+        <v>7439921</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E127" s="8">
-        <v>0.5</v>
+        <v>30</v>
+      </c>
+      <c r="E127" s="13">
+        <v>1</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G127" s="8">
-        <v>80</v>
+      <c r="G127" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B128" s="1">
-        <v>7439976</v>
+        <v>423</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E128" s="5">
-        <v>1E-3</v>
+        <v>79</v>
+      </c>
+      <c r="E128" s="8">
+        <v>250</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G128" s="18">
-        <v>1.2E-2</v>
+      <c r="G128" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B129" s="1">
-        <v>72435</v>
+        <v>121755</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E129" s="8">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G129" s="8">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="B130" s="1">
-        <v>74839</v>
+        <v>424</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E130" s="13">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="E130" s="17">
+        <v>10</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G130" s="8">
-        <v>37</v>
+      <c r="G130" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="B131" s="1">
-        <v>75092</v>
+        <v>7439976</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E131" s="13">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="E131" s="5">
+        <v>1E-3</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G131" s="8">
-        <v>4.3</v>
+      <c r="G131" s="18">
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E132" s="6">
-        <v>2.0000000000000002E-5</v>
+        <v>318</v>
+      </c>
+      <c r="B132" s="1">
+        <v>72435</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E132" s="8">
+        <v>0.01</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G132" s="13" t="s">
-        <v>60</v>
+      <c r="G132" s="8">
+        <v>0.03</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>320</v>
+        <v>473</v>
       </c>
       <c r="B133" s="1">
-        <v>2385855</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E133" s="8">
-        <v>0.01</v>
+        <v>74839</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E133" s="13">
+        <v>0.5</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G133" s="8">
-        <v>1E-3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>81</v>
+        <v>375</v>
+      </c>
+      <c r="B134" s="1">
+        <v>74873</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E134" s="17">
-        <v>10</v>
+        <v>133</v>
+      </c>
+      <c r="E134" s="13">
+        <v>0.5</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>364</v>
@@ -5094,113 +5094,113 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B135" s="1">
-        <v>91203</v>
+        <v>385</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>386</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E135" s="13">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="E135" s="6">
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G135" s="8" t="s">
+      <c r="G135" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>405</v>
+        <v>474</v>
       </c>
       <c r="B136" s="1">
-        <v>7440020</v>
+        <v>75092</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E136" s="8">
-        <v>10</v>
+        <v>135</v>
+      </c>
+      <c r="E136" s="13">
+        <v>0.5</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G136" s="13">
-        <v>52.006539397853551</v>
+      <c r="G136" s="8">
+        <v>4.3</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>426</v>
+        <v>320</v>
       </c>
       <c r="B137" s="1">
-        <v>7440020</v>
-      </c>
-      <c r="C137" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>38</v>
+        <v>2385855</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="E137" s="8">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G137" s="13">
-        <v>140</v>
+      <c r="G137" s="8">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B138" s="1">
-        <v>14797558</v>
+        <v>425</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E138" s="8">
-        <v>100</v>
+        <v>81</v>
+      </c>
+      <c r="E138" s="17">
+        <v>10</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G138" s="8">
-        <v>10000</v>
+      <c r="G138" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C139" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D139" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D139" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="F139" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G139" s="8" t="s">
@@ -5209,229 +5209,229 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B140" s="1">
-        <v>98953</v>
-      </c>
-      <c r="C140" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E140" s="13">
-        <v>1</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G140" s="8">
-        <v>14</v>
+        <v>516</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="E141" s="13">
-        <v>2</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G141" s="8">
-        <v>7.9000000000000001E-4</v>
+        <v>509</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B142" s="1">
-        <v>62759</v>
+        <v>376</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E142" s="13">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G142" s="8">
-        <v>6.8000000000000005E-4</v>
+        <v>60</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>353</v>
+        <v>377</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>352</v>
+        <v>60</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E143" s="13">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G143" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>60</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B144" s="1">
-        <v>621647</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E144" s="13">
-        <v>2</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G144" s="8">
-        <v>4.5999999999999999E-3</v>
+        <v>513</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B145" s="1">
-        <v>86306</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E145" s="13">
-        <v>1</v>
-      </c>
-      <c r="F145" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G145" s="8">
-        <v>0.55000000000000004</v>
+        <v>510</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B146" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="E146" s="13">
-        <v>2</v>
-      </c>
-      <c r="F146" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G146" s="8">
-        <v>1.6E-2</v>
+        <v>515</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B147" s="1">
-        <v>95578</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="E147" s="13">
-        <v>1</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G147" s="8">
-        <v>14</v>
+        <v>514</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B148" s="1">
-        <v>95501</v>
+        <v>392</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E148" s="8">
-        <v>0.5</v>
+        <v>60</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G148" s="8">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B149" s="1">
-        <v>88755</v>
+        <v>393</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E149" s="13">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>364</v>
+        <v>60</v>
       </c>
       <c r="G149" s="8" t="s">
         <v>60</v>
@@ -5439,108 +5439,108 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B150" s="1">
-        <v>72548</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E150" s="8">
-        <v>0.01</v>
+        <v>394</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G150" s="8">
-        <v>3.1000000000000001E-5</v>
+        <v>60</v>
+      </c>
+      <c r="G150" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B151" s="1">
-        <v>72559</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E151" s="8">
-        <v>0.01</v>
+        <v>395</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G151" s="8">
-        <v>2.1999999999999999E-5</v>
+        <v>60</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B152" s="1">
-        <v>50293</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E152" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G152" s="8">
-        <v>2.1999999999999999E-5</v>
+        <v>511</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G152" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B153" s="1">
-        <v>56382</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E153" s="8">
-        <v>10</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G153" s="8">
-        <v>1.2999999999999999E-2</v>
+        <v>512</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="B154" s="1">
-        <v>101553</v>
+        <v>91203</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>209</v>
+        <v>253</v>
       </c>
       <c r="E154" s="13">
         <v>1</v>
@@ -5554,154 +5554,154 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>506</v>
+        <v>405</v>
       </c>
       <c r="B155" s="1">
-        <v>59507</v>
+        <v>7440020</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E155" s="13">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="E155" s="8">
+        <v>10</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G155" s="8" t="s">
-        <v>60</v>
+      <c r="G155" s="13">
+        <v>52.006539397853551</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>476</v>
+        <v>426</v>
       </c>
       <c r="B156" s="1">
-        <v>7005723</v>
+        <v>7440020</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>214</v>
+        <v>37</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E156" s="13">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="E156" s="8">
+        <v>10</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G156" s="8" t="s">
-        <v>60</v>
+      <c r="G156" s="13">
+        <v>140</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B157" s="1">
-        <v>106467</v>
+        <v>14797558</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="E157" s="8">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G157" s="8">
-        <v>16</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B158" s="1">
-        <v>608935</v>
+        <v>98953</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E158" s="12">
+        <v>255</v>
+      </c>
+      <c r="E158" s="13">
         <v>1</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G158" s="8">
-        <v>0.15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B159" s="1">
-        <v>87865</v>
+        <v>387</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>353</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>172</v>
+        <v>352</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E159" s="8">
-        <v>1</v>
+        <v>353</v>
+      </c>
+      <c r="E159" s="13">
+        <v>2</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G159" s="8">
-        <v>0.15</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B160" s="1">
-        <v>85018</v>
+        <v>354</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>264</v>
+        <v>354</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E160" s="12">
-        <v>1</v>
+        <v>355</v>
+      </c>
+      <c r="E160" s="13">
+        <v>2</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G160" s="8" t="s">
-        <v>60</v>
+      <c r="G160" s="8">
+        <v>7.9000000000000001E-4</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>174</v>
+        <v>503</v>
       </c>
       <c r="B161" s="1">
-        <v>108952</v>
+        <v>62759</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="E161" s="13">
         <v>1</v>
@@ -5710,231 +5710,231 @@
         <v>364</v>
       </c>
       <c r="G161" s="8">
-        <v>9400</v>
+        <v>6.8000000000000005E-4</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>60</v>
+        <v>504</v>
+      </c>
+      <c r="B162" s="1">
+        <v>621647</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E162" s="8">
-        <v>10</v>
+        <v>258</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E162" s="13">
+        <v>2</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G162" s="13" t="s">
-        <v>60</v>
+      <c r="G162" s="8">
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>359</v>
+        <v>505</v>
+      </c>
+      <c r="B163" s="1">
+        <v>86306</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>358</v>
+        <v>260</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="E163" s="8">
-        <v>10</v>
+        <v>261</v>
+      </c>
+      <c r="E163" s="13">
+        <v>1</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G163" s="8" t="s">
-        <v>60</v>
+      <c r="G163" s="8">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B164" s="1">
-        <v>100027</v>
+        <v>356</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>357</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>170</v>
+        <v>356</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>171</v>
+        <v>357</v>
       </c>
       <c r="E164" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G164" s="8" t="s">
-        <v>60</v>
+      <c r="G164" s="8">
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="B165" s="1">
-        <v>129000</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E165" s="13">
-        <v>1</v>
+        <v>56382</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E165" s="8">
+        <v>10</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G165" s="8">
-        <v>290</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="B166" s="1">
-        <v>7782492</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E166" s="13">
-        <v>1</v>
+        <v>12674112</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="E166" s="8">
+        <v>0.5</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G166" s="13">
-        <v>4.2412000000000001</v>
+      <c r="G166" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="B167" s="1">
-        <v>7782492</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E167" s="13">
-        <v>1</v>
+        <v>11104282</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E167" s="8">
+        <v>0.5</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G167" s="13">
-        <v>120</v>
+      <c r="G167" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="B168" s="1">
-        <v>7440224</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D168" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E168" s="12">
-        <v>0.1</v>
+        <v>11141165</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E168" s="8">
+        <v>0.5</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G168" s="13">
-        <v>8.5000000000000006E-2</v>
+      <c r="G168" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="B169" s="1">
-        <v>7440224</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D169" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E169" s="12">
-        <v>0.1</v>
+        <v>53469219</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E169" s="8">
+        <v>0.5</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G169" s="13" t="s">
+      <c r="G169" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E170" s="13">
-        <v>1</v>
+        <v>461</v>
+      </c>
+      <c r="B170" s="1">
+        <v>12672296</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E170" s="8">
+        <v>0.5</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G170" s="8">
-        <v>10</v>
+      <c r="G170" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>66</v>
+        <v>462</v>
+      </c>
+      <c r="B171" s="1">
+        <v>11097691</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>339</v>
       </c>
       <c r="E171" s="8">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>364</v>
@@ -5945,19 +5945,19 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B172" s="15" t="s">
-        <v>390</v>
+        <v>463</v>
+      </c>
+      <c r="B172" s="1">
+        <v>11096825</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>67</v>
+        <v>340</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>68</v>
+        <v>341</v>
       </c>
       <c r="E172" s="8">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>364</v>
@@ -5968,19 +5968,19 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>60</v>
+        <v>506</v>
+      </c>
+      <c r="B173" s="1">
+        <v>59507</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E173" s="8">
-        <v>50</v>
+        <v>157</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>364</v>
@@ -5991,68 +5991,68 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>60</v>
+        <v>262</v>
+      </c>
+      <c r="B174" s="1">
+        <v>608935</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>60</v>
+        <v>263</v>
+      </c>
+      <c r="E174" s="12">
+        <v>1</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G174" s="8" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="G174" s="8">
+        <v>0.15</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>60</v>
+        <v>172</v>
+      </c>
+      <c r="B175" s="1">
+        <v>87865</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>60</v>
+        <v>172</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>60</v>
+        <v>173</v>
+      </c>
+      <c r="E175" s="8">
+        <v>1</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G175" s="8" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="G175" s="8">
+        <v>0.15</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>60</v>
+        <v>264</v>
+      </c>
+      <c r="B176" s="1">
+        <v>85018</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>60</v>
+        <v>264</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>60</v>
+        <v>265</v>
+      </c>
+      <c r="E176" s="12">
+        <v>1</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>60</v>
+        <v>364</v>
       </c>
       <c r="G176" s="8" t="s">
         <v>60</v>
@@ -6060,482 +6060,482 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>60</v>
+        <v>174</v>
+      </c>
+      <c r="B177" s="1">
+        <v>108952</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E177" s="8" t="s">
-        <v>60</v>
+        <v>175</v>
+      </c>
+      <c r="E177" s="13">
+        <v>1</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G177" s="8" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="G177" s="8">
+        <v>9400</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B178" s="2">
-        <v>127184</v>
+        <v>388</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>359</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>139</v>
+        <v>359</v>
       </c>
       <c r="E178" s="8">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G178" s="8">
-        <v>0.24</v>
+      <c r="G178" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>429</v>
+        <v>266</v>
       </c>
       <c r="B179" s="1">
-        <v>7440280</v>
+        <v>129000</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E179" s="12">
-        <v>0.1</v>
+        <v>267</v>
+      </c>
+      <c r="E179" s="13">
+        <v>1</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G179" s="12">
-        <v>4.2999999999999997E-2</v>
+      <c r="G179" s="8">
+        <v>290</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>85</v>
+        <v>406</v>
+      </c>
+      <c r="B180" s="1">
+        <v>7782492</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E180" s="17">
-        <v>10</v>
+        <v>44</v>
+      </c>
+      <c r="E180" s="13">
+        <v>1</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G180" s="8" t="s">
-        <v>60</v>
+      <c r="G180" s="13">
+        <v>4.2412000000000001</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>87</v>
+        <v>427</v>
+      </c>
+      <c r="B181" s="1">
+        <v>7782492</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E181" s="17">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="E181" s="13">
+        <v>1</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G181" s="8" t="s">
-        <v>60</v>
+      <c r="G181" s="13">
+        <v>120</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>140</v>
+        <v>407</v>
       </c>
       <c r="B182" s="1">
-        <v>108883</v>
+        <v>7440224</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E182" s="8">
-        <v>0.5</v>
+        <v>48</v>
+      </c>
+      <c r="E182" s="12">
+        <v>0.1</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G182" s="8">
-        <v>720</v>
+      <c r="G182" s="13">
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E183" s="8">
-        <v>0.5</v>
+        <v>428</v>
+      </c>
+      <c r="B183" s="1">
+        <v>7440224</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E183" s="12">
+        <v>0.1</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G183" s="8">
-        <v>6.3999999999999997E-6</v>
+      <c r="G183" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B184" s="1">
-        <v>8001352</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>325</v>
+        <v>65</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="E184" s="8">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G184" s="8">
-        <v>2.8E-5</v>
+      <c r="G184" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B185" s="1">
-        <v>156605</v>
+        <v>389</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="E185" s="8">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G185" s="8">
-        <v>120</v>
+      <c r="G185" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B186" s="1">
-        <v>75252</v>
+        <v>391</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="E186" s="8">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G186" s="8">
-        <v>3.3</v>
+      <c r="G186" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B187" s="15" t="s">
-        <v>362</v>
+        <v>138</v>
+      </c>
+      <c r="B187" s="2">
+        <v>127184</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>362</v>
+        <v>138</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="E187" s="8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G187" s="8">
-        <v>6.3E-2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B188" s="1">
-        <v>79016</v>
+        <v>7440280</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E188" s="8">
-        <v>0.5</v>
+        <v>50</v>
+      </c>
+      <c r="E188" s="12">
+        <v>0.1</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G188" s="8">
-        <v>1.4</v>
+      <c r="G188" s="12">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B189" s="1">
-        <v>75014</v>
+        <v>430</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E189" s="8">
-        <v>0.5</v>
+        <v>85</v>
+      </c>
+      <c r="E189" s="17">
+        <v>10</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G189" s="8">
-        <v>2.3E-2</v>
+      <c r="G189" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B190" s="1">
-        <v>7440666</v>
+        <v>431</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E190" s="13">
-        <v>5</v>
+        <v>87</v>
+      </c>
+      <c r="E190" s="17">
+        <v>10</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G190" s="13">
-        <v>117.18045413475284</v>
+      <c r="G190" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>432</v>
+        <v>140</v>
       </c>
       <c r="B191" s="1">
-        <v>7440666</v>
+        <v>108883</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E191" s="13">
-        <v>5</v>
+        <v>141</v>
+      </c>
+      <c r="E191" s="8">
+        <v>0.5</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G191" s="13">
-        <v>2100</v>
+      <c r="G191" s="8">
+        <v>720</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E192" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F192" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G192" s="8" t="s">
-        <v>60</v>
+        <v>326</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E192" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G192" s="8">
+        <v>6.3999999999999997E-6</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F193" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G193" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E193" s="8">
+        <v>10</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G193" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G194" s="8" t="s">
-        <v>60</v>
+        <v>324</v>
+      </c>
+      <c r="B194" s="1">
+        <v>8001352</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E194" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G194" s="8">
+        <v>2.8E-5</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F195" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G195" s="8" t="s">
-        <v>60</v>
+        <v>397</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E195" s="8">
+        <v>2</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G195" s="8">
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E196" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F196" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G196" s="8" t="s">
-        <v>60</v>
+        <v>444</v>
+      </c>
+      <c r="B196" s="1">
+        <v>79016</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D196" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E196" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G196" s="8">
+        <v>1.4</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>60</v>
+        <v>398</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E197" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="G197" s="8" t="s">
         <v>60</v>
@@ -6543,75 +6543,79 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G198" s="8" t="s">
-        <v>60</v>
+        <v>443</v>
+      </c>
+      <c r="B198" s="1">
+        <v>75014</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E198" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G198" s="8">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F199" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G199" s="8" t="s">
-        <v>60</v>
+        <v>408</v>
+      </c>
+      <c r="B199" s="1">
+        <v>7440666</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E199" s="13">
+        <v>5</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G199" s="13">
+        <v>117.18045413475284</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F200" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G200" s="8" t="s">
-        <v>60</v>
+        <v>432</v>
+      </c>
+      <c r="B200" s="1">
+        <v>7440666</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E200" s="13">
+        <v>5</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G200" s="13">
+        <v>2100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G200"/>
+  <autoFilter ref="A1:G200">
+    <sortState ref="A2:G200">
+      <sortCondition ref="C1:C200"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2_21_19_QLs.xlsx
+++ b/2_21_19_QLs.xlsx
@@ -1994,8 +1994,8 @@
   <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B192" sqref="B192:G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,108 +2035,108 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B2" s="1">
-        <v>71556</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>143</v>
+        <v>959988</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="E2" s="8">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>60</v>
+      <c r="G2" s="8">
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B3" s="1">
-        <v>79345</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>137</v>
+        <v>319846</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="E3" s="8">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G3" s="8">
-        <v>0.12</v>
+        <v>4.4999999999999999E-4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B4" s="1">
-        <v>79005</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>145</v>
+        <v>33213659</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="E4" s="8">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G4" s="8">
-        <v>0.44</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B5" s="1">
-        <v>75343</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>117</v>
+        <v>319857</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E5" s="8">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>60</v>
+      <c r="G5" s="8">
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B6" s="1">
-        <v>75354</v>
+        <v>71556</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E6" s="8">
         <v>0.5</v>
@@ -2144,68 +2144,68 @@
       <c r="F6" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G6" s="8">
-        <v>230</v>
+      <c r="G6" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>270</v>
+        <v>442</v>
       </c>
       <c r="B7" s="1">
-        <v>95943</v>
+        <v>79345</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>270</v>
+        <v>136</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
+        <v>137</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.5</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G7" s="8">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B8" s="1">
-        <v>120821</v>
+        <v>79005</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.5</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G8" s="8">
-        <v>6.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>494</v>
+        <v>448</v>
       </c>
       <c r="B9" s="1">
-        <v>95501</v>
+        <v>75343</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E9" s="8">
         <v>0.5</v>
@@ -2213,22 +2213,22 @@
       <c r="F9" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G9" s="8">
-        <v>110</v>
+      <c r="G9" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B10" s="1">
-        <v>107062</v>
+        <v>75354</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E10" s="8">
         <v>0.5</v>
@@ -2237,90 +2237,90 @@
         <v>364</v>
       </c>
       <c r="G10" s="8">
-        <v>0.35</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>452</v>
+        <v>370</v>
       </c>
       <c r="B11" s="1">
-        <v>78875</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>125</v>
+        <v>608731</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="E11" s="8">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G11" s="8">
-        <v>0.38</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>453</v>
+        <v>270</v>
       </c>
       <c r="B12" s="1">
-        <v>122667</v>
+        <v>95943</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E12" s="13">
+        <v>271</v>
+      </c>
+      <c r="E12" s="12">
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G12" s="8">
-        <v>1.4E-2</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B13" s="1">
-        <v>156605</v>
+        <v>120821</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>120</v>
+        <v>268</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.5</v>
+        <v>269</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G13" s="8">
-        <v>120</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>500</v>
+        <v>451</v>
       </c>
       <c r="B14" s="1">
-        <v>541731</v>
+        <v>107062</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E14" s="8">
         <v>0.5</v>
@@ -2329,21 +2329,21 @@
         <v>364</v>
       </c>
       <c r="G14" s="8">
-        <v>80</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>371</v>
+        <v>452</v>
       </c>
       <c r="B15" s="1">
-        <v>542756</v>
+        <v>78875</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="8">
         <v>0.5</v>
@@ -2352,136 +2352,136 @@
         <v>364</v>
       </c>
       <c r="G15" s="8">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>507</v>
+        <v>453</v>
       </c>
       <c r="B16" s="1">
-        <v>106467</v>
+        <v>122667</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.5</v>
+        <v>235</v>
+      </c>
+      <c r="E16" s="13">
+        <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G16" s="8">
-        <v>16</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>347</v>
+        <v>371</v>
+      </c>
+      <c r="B17" s="1">
+        <v>542756</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>346</v>
+        <v>126</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E17" s="13">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.5</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G17" s="8">
-        <v>10</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B18" s="1">
-        <v>95954</v>
+        <v>383</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>351</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>176</v>
+        <v>350</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="13">
-        <v>2</v>
+        <v>351</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G18" s="8">
-        <v>330</v>
+        <v>5.1E-10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B19" s="1">
-        <v>88062</v>
+        <v>95954</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1</v>
+        <v>177</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G19" s="8">
-        <v>0.23</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>349</v>
+        <v>455</v>
+      </c>
+      <c r="B20" s="1">
+        <v>88062</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>348</v>
+        <v>178</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="E20" s="13">
+        <v>179</v>
+      </c>
+      <c r="E20" s="12">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G20" s="8">
-        <v>100</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B21" s="1">
-        <v>120832</v>
+        <v>379</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>160</v>
+        <v>348</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>161</v>
+        <v>349</v>
       </c>
       <c r="E21" s="13">
         <v>1</v>
@@ -2490,44 +2490,44 @@
         <v>364</v>
       </c>
       <c r="G21" s="8">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B22" s="1">
-        <v>105679</v>
+        <v>120832</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E22" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G22" s="8">
-        <v>76</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B23" s="1">
-        <v>51285</v>
+        <v>105679</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E23" s="13">
         <v>5</v>
@@ -2536,44 +2536,44 @@
         <v>364</v>
       </c>
       <c r="G23" s="8">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B24" s="1">
-        <v>121142</v>
+        <v>51285</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" s="12">
-        <v>1</v>
+        <v>167</v>
+      </c>
+      <c r="E24" s="13">
+        <v>5</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G24" s="8">
-        <v>8.4000000000000005E-2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B25" s="1">
-        <v>606202</v>
+        <v>121142</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E25" s="12">
         <v>1</v>
@@ -2581,25 +2581,25 @@
       <c r="F25" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>60</v>
+      <c r="G25" s="8">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>456</v>
+        <v>481</v>
       </c>
       <c r="B26" s="1">
-        <v>110758</v>
+        <v>606202</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="8">
-        <v>10</v>
+        <v>233</v>
+      </c>
+      <c r="E26" s="12">
+        <v>1</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>364</v>
@@ -2610,39 +2610,39 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="B27" s="1">
-        <v>91587</v>
+        <v>110758</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="13">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="E27" s="8">
+        <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G27" s="8">
-        <v>150</v>
+      <c r="G27" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="B28" s="1">
-        <v>95578</v>
+        <v>91587</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="E28" s="13">
         <v>1</v>
@@ -2651,21 +2651,21 @@
         <v>364</v>
       </c>
       <c r="G28" s="8">
-        <v>14</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="B29" s="1">
-        <v>88755</v>
+        <v>91941</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="E29" s="13">
         <v>2</v>
@@ -2673,68 +2673,68 @@
       <c r="F29" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>60</v>
+      <c r="G29" s="8">
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B30" s="1">
-        <v>91941</v>
+        <v>534521</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="E30" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G30" s="8">
-        <v>2.7000000000000001E-3</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>484</v>
+        <v>180</v>
       </c>
       <c r="B31" s="1">
-        <v>534521</v>
+        <v>83329</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="E31" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G31" s="8">
-        <v>9.1999999999999993</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>475</v>
+        <v>182</v>
       </c>
       <c r="B32" s="1">
-        <v>101553</v>
+        <v>208968</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="E32" s="13">
         <v>1</v>
@@ -2748,39 +2748,39 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>476</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1">
-        <v>7005723</v>
+        <v>107028</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>214</v>
+        <v>88</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>215</v>
+        <v>89</v>
       </c>
       <c r="E33" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>60</v>
+      <c r="G33" s="8">
+        <v>0.88</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B34" s="1">
-        <v>100027</v>
+        <v>90</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="E34" s="13">
         <v>5</v>
@@ -2788,51 +2788,51 @@
       <c r="F34" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>60</v>
+      <c r="G34" s="8">
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="B35" s="1">
-        <v>83329</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="13">
-        <v>1</v>
+        <v>309002</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.01</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G35" s="8">
-        <v>95</v>
+        <v>5.0000000000000004E-6</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B36" s="1">
-        <v>208968</v>
+        <v>372</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>182</v>
+        <v>360</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" s="13">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="E36" s="8">
+        <v>5</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>60</v>
@@ -2840,91 +2840,91 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="1">
-        <v>107028</v>
+        <v>411</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="13">
-        <v>5</v>
+        <v>71</v>
+      </c>
+      <c r="E37" s="8">
+        <v>50</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G37" s="8">
-        <v>0.88</v>
+      <c r="G37" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>91</v>
+        <v>184</v>
+      </c>
+      <c r="B38" s="1">
+        <v>120127</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>90</v>
+        <v>184</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="E38" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G38" s="8">
-        <v>1.7999999999999999E-2</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="B39" s="1">
-        <v>309002</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0.01</v>
+        <v>7440360</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="12">
+        <v>0.5</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G39" s="8">
-        <v>5.0000000000000004E-6</v>
+      <c r="G39" s="13">
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>60</v>
+        <v>457</v>
+      </c>
+      <c r="B40" s="1">
+        <v>12674112</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="E40" s="8">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>60</v>
@@ -2932,19 +2932,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>71</v>
+        <v>458</v>
+      </c>
+      <c r="B41" s="1">
+        <v>11104282</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="E41" s="8">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>364</v>
@@ -2955,269 +2955,269 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>184</v>
+        <v>459</v>
       </c>
       <c r="B42" s="1">
-        <v>120127</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" s="13">
-        <v>1</v>
+        <v>11141165</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0.5</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G42" s="8">
-        <v>2900</v>
+      <c r="G42" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="B43" s="1">
-        <v>7440360</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="12">
-        <v>0.1</v>
+        <v>53469219</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.5</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G43" s="13">
-        <v>5.0999999999999996</v>
+      <c r="G43" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="13">
-        <v>1</v>
+        <v>461</v>
+      </c>
+      <c r="B44" s="1">
+        <v>12672296</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E44" s="8">
+        <v>0.5</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G44" s="13">
-        <v>2.1</v>
+      <c r="G44" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B45" s="2">
-        <v>7440382</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="13">
-        <v>1</v>
+        <v>462</v>
+      </c>
+      <c r="B45" s="1">
+        <v>11097691</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0.5</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G45" s="13">
-        <v>150</v>
+      <c r="G45" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B46" s="2">
-        <v>7440382</v>
+        <v>463</v>
+      </c>
+      <c r="B46" s="1">
+        <v>11096825</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>4</v>
+        <v>340</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="12">
+        <v>341</v>
+      </c>
+      <c r="E46" s="8">
         <v>0.5</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G46" s="13" t="s">
+      <c r="G46" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>187</v>
+        <v>435</v>
+      </c>
+      <c r="B47" s="2">
+        <v>7440382</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="E47" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G47" s="8" t="s">
-        <v>60</v>
+      <c r="G47" s="13">
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>73</v>
+        <v>373</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="12">
-        <v>0.1</v>
+        <v>7</v>
+      </c>
+      <c r="E48" s="13">
+        <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G48" s="8">
-        <v>1000</v>
+      <c r="G48" s="13">
+        <v>2.1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="1">
-        <v>71432</v>
+        <v>413</v>
+      </c>
+      <c r="B49" s="2">
+        <v>7440382</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E49" s="8">
+        <v>5</v>
+      </c>
+      <c r="E49" s="12">
         <v>0.5</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G49" s="8">
-        <v>0.44</v>
+      <c r="G49" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>188</v>
+        <v>485</v>
       </c>
       <c r="B50" s="1">
-        <v>92875</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>189</v>
+        <v>86500</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="E50" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G50" s="8">
-        <v>1.8E-5</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B51" s="1">
-        <v>56553</v>
+        <v>186</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>187</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E51" s="12">
-        <v>0.5</v>
+        <v>187</v>
+      </c>
+      <c r="E51" s="13">
+        <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G51" s="8">
-        <v>1.2999999999999999E-3</v>
+      <c r="G51" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="B52" s="1">
-        <v>50328</v>
+        <v>414</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>192</v>
+        <v>72</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="E52" s="12">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G52" s="8">
-        <v>1.2999999999999999E-3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>194</v>
+        <v>486</v>
       </c>
       <c r="B53" s="1">
-        <v>205992</v>
+        <v>56553</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E53" s="12">
         <v>0.5</v>
@@ -3231,157 +3231,157 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>488</v>
+        <v>92</v>
       </c>
       <c r="B54" s="1">
-        <v>191242</v>
+        <v>71432</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E54" s="12">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0.5</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G54" s="8" t="s">
-        <v>60</v>
+      <c r="G54" s="8">
+        <v>0.44</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="B55" s="1">
-        <v>207089</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E55" s="12">
-        <v>1</v>
+        <v>374</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0.01</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G55" s="8">
-        <v>1.2999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B56" s="1">
-        <v>7440417</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="12">
-        <v>0.1</v>
+        <v>380</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0.01</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G56" s="13" t="s">
+      <c r="G56" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>439</v>
+        <v>188</v>
       </c>
       <c r="B57" s="1">
-        <v>319846</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>277</v>
+        <v>92875</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="E57" s="8">
-        <v>0.01</v>
+        <v>50</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G57" s="8">
-        <v>4.4999999999999999E-4</v>
+        <v>1.8E-5</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>440</v>
+        <v>194</v>
       </c>
       <c r="B58" s="1">
-        <v>319857</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E58" s="8">
-        <v>0.01</v>
+        <v>205992</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0.5</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G58" s="8">
-        <v>1.6000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E59" s="8">
-        <v>0.01</v>
+        <v>487</v>
+      </c>
+      <c r="B59" s="1">
+        <v>50328</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0.5</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G59" s="8">
-        <v>1.6000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E60" s="8">
-        <v>0.01</v>
+        <v>488</v>
+      </c>
+      <c r="B60" s="1">
+        <v>191242</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E60" s="12">
+        <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>364</v>
@@ -3392,94 +3392,94 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B61" s="1">
-        <v>58899</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E61" s="8">
-        <v>0.01</v>
+        <v>207089</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" s="12">
+        <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G61" s="8">
-        <v>0.08</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="B62" s="1">
-        <v>608731</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E62" s="8">
-        <v>0.01</v>
+        <v>7440417</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0.1</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G62" s="8">
-        <v>1.4E-3</v>
+      <c r="G62" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="B63" s="1">
-        <v>111911</v>
+        <v>108601</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E63" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G63" s="8" t="s">
-        <v>60</v>
+      <c r="G63" s="8">
+        <v>1200</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="B64" s="1">
-        <v>117817</v>
+        <v>111911</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E64" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G64" s="8">
-        <v>0.2</v>
+      <c r="G64" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -3507,42 +3507,42 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B66" s="1">
-        <v>108601</v>
+        <v>381</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>151</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E66" s="13">
-        <v>2</v>
+        <v>151</v>
+      </c>
+      <c r="E66" s="12">
+        <v>0.5</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G66" s="8">
-        <v>1200</v>
+      <c r="G66" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="E67" s="12">
-        <v>0.5</v>
+        <v>75</v>
+      </c>
+      <c r="E67" s="8">
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>364</v>
@@ -3553,19 +3553,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>416</v>
+        <v>61</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E68" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>364</v>
@@ -3576,200 +3576,200 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>62</v>
+        <v>466</v>
+      </c>
+      <c r="B69" s="1">
+        <v>85687</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E69" s="8">
-        <v>100</v>
+        <v>211</v>
+      </c>
+      <c r="E69" s="13">
+        <v>1</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G69" s="8" t="s">
-        <v>60</v>
+      <c r="G69" s="8">
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>445</v>
+        <v>401</v>
       </c>
       <c r="B70" s="1">
-        <v>75252</v>
+        <v>7440439</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E70" s="8">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="E70" s="12">
+        <v>0.1</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G70" s="8">
-        <v>3.3</v>
+      <c r="G70" s="13">
+        <v>0.24599634148460026</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>466</v>
+        <v>417</v>
       </c>
       <c r="B71" s="1">
-        <v>85687</v>
+        <v>7440439</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E71" s="13">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="E71" s="12">
+        <v>0.1</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G71" s="8">
-        <v>190</v>
+      <c r="G71" s="13">
+        <v>3.9221186109975661</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="B72" s="1">
-        <v>7440439</v>
+        <v>56235</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E72" s="12">
+        <v>97</v>
+      </c>
+      <c r="E72" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G72" s="8">
         <v>0.1</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G72" s="13">
-        <v>0.24599634148460026</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>417</v>
+        <v>284</v>
       </c>
       <c r="B73" s="1">
-        <v>7440439</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="12">
+        <v>57749</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E73" s="8">
         <v>0.1</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G73" s="13">
-        <v>3.9221186109975661</v>
+      <c r="G73" s="8">
+        <v>8.1000000000000004E-5</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="B74" s="1">
-        <v>56235</v>
+        <v>342</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>343</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>96</v>
+        <v>342</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>97</v>
+        <v>343</v>
       </c>
       <c r="E74" s="8">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G74" s="8">
-        <v>0.1</v>
+      <c r="G74" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>284</v>
+        <v>98</v>
       </c>
       <c r="B75" s="1">
-        <v>57749</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>285</v>
+        <v>108907</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="E75" s="8">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G75" s="8">
-        <v>8.1000000000000004E-5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>343</v>
+        <v>100</v>
+      </c>
+      <c r="B76" s="1">
+        <v>124481</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>342</v>
+        <v>100</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>343</v>
+        <v>101</v>
       </c>
       <c r="E76" s="8">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G76" s="8" t="s">
-        <v>60</v>
+      <c r="G76" s="8">
+        <v>0.31</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B77" s="1">
-        <v>108907</v>
+        <v>75003</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E77" s="8">
         <v>0.5</v>
@@ -3777,22 +3777,22 @@
       <c r="F77" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G77" s="8">
-        <v>74</v>
+      <c r="G77" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B78" s="1">
-        <v>124481</v>
+        <v>67663</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E78" s="8">
         <v>0.5</v>
@@ -3801,24 +3801,24 @@
         <v>364</v>
       </c>
       <c r="G78" s="8">
-        <v>0.31</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>375</v>
       </c>
       <c r="B79" s="1">
-        <v>75003</v>
+        <v>74873</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E79" s="8">
-        <v>0.5</v>
+        <v>133</v>
+      </c>
+      <c r="E79" s="13">
+        <v>1</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>364</v>
@@ -3829,88 +3829,88 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="B80" s="1">
-        <v>67663</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>107</v>
+        <v>2921882</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="E80" s="8">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G80" s="8">
-        <v>260</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>286</v>
+        <v>409</v>
       </c>
       <c r="B81" s="1">
-        <v>2921882</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="E81" s="8">
-        <v>0.01</v>
+        <v>16065831</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G81" s="8">
-        <v>4.1000000000000002E-2</v>
+      <c r="G81" s="13">
+        <v>74.114522080141811</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B82" s="1">
-        <v>7440473</v>
+        <v>18540299</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E82" s="8">
+        <v>22</v>
+      </c>
+      <c r="E82" s="13">
         <v>2</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G82" s="13" t="s">
-        <v>60</v>
+      <c r="G82" s="13">
+        <v>10.581999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="B83" s="1">
         <v>7440473</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E83" s="12">
-        <v>0.4</v>
+        <v>18</v>
+      </c>
+      <c r="E83" s="8">
+        <v>2</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>364</v>
@@ -3921,108 +3921,108 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B84" s="1">
-        <v>16065831</v>
+        <v>7440473</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>60</v>
+        <v>16</v>
+      </c>
+      <c r="E84" s="12">
+        <v>0.4</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G84" s="13">
-        <v>74.114522080141811</v>
+      <c r="G84" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>410</v>
+        <v>216</v>
       </c>
       <c r="B85" s="1">
-        <v>18540299</v>
+        <v>218019</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" s="13">
-        <v>2</v>
+        <v>217</v>
+      </c>
+      <c r="E85" s="12">
+        <v>0.5</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G85" s="13">
-        <v>10.581999999999999</v>
+      <c r="G85" s="8">
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B86" s="1">
-        <v>218019</v>
+        <v>419</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E86" s="12">
-        <v>0.5</v>
+        <v>77</v>
+      </c>
+      <c r="E86" s="8">
+        <v>5</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G86" s="8">
-        <v>1.2999999999999999E-3</v>
+      <c r="G86" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>77</v>
+        <v>403</v>
+      </c>
+      <c r="B87" s="1">
+        <v>7440508</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E87" s="8">
-        <v>5</v>
+        <v>26</v>
+      </c>
+      <c r="E87" s="13">
+        <v>2</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="B88" s="1">
         <v>7440508</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E88" s="13">
         <v>2</v>
@@ -4030,31 +4030,31 @@
       <c r="F88" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G88" s="13" t="s">
-        <v>60</v>
+      <c r="G88" s="13">
+        <v>11.823841083208801</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B89" s="1">
-        <v>7440508</v>
+        <v>434</v>
+      </c>
+      <c r="B89" s="2">
+        <v>57125</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E89" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G89" s="13">
-        <v>11.823841083208801</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -4082,177 +4082,177 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B91" s="2">
-        <v>57125</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>56</v>
+        <v>288</v>
+      </c>
+      <c r="B91" s="1">
+        <v>8065483</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="E91" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G91" s="13">
-        <v>130</v>
+      <c r="G91" s="8">
+        <v>0.1</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="B92" s="1">
-        <v>72548</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E92" s="8">
-        <v>0.01</v>
+        <v>117817</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" s="13">
+        <v>1</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G92" s="8">
-        <v>3.1000000000000001E-5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B93" s="1">
-        <v>72559</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E93" s="8">
-        <v>0.01</v>
+        <v>53703</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E93" s="12">
+        <v>0.5</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G93" s="8">
-        <v>2.1999999999999999E-5</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>497</v>
+        <v>469</v>
       </c>
       <c r="B94" s="1">
-        <v>50293</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E94" s="8">
-        <v>0.01</v>
+        <v>84742</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E94" s="13">
+        <v>1</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G94" s="8">
-        <v>2.1999999999999999E-5</v>
+        <v>400</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>288</v>
+        <v>108</v>
       </c>
       <c r="B95" s="1">
-        <v>8065483</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E95" s="13">
-        <v>1</v>
+        <v>75274</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" s="8">
+        <v>0.5</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G95" s="8">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B96" s="1">
-        <v>53703</v>
+        <v>382</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E96" s="12">
-        <v>0.5</v>
+        <v>153</v>
+      </c>
+      <c r="E96" s="13">
+        <v>1</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G96" s="8">
-        <v>1.2999999999999999E-3</v>
+      <c r="G96" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>108</v>
+        <v>296</v>
       </c>
       <c r="B97" s="1">
-        <v>75274</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>109</v>
+        <v>60571</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="E97" s="8">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G97" s="8">
-        <v>0.42</v>
+        <v>5.3000000000000001E-6</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>153</v>
+        <v>226</v>
+      </c>
+      <c r="B98" s="1">
+        <v>84662</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="E98" s="13">
         <v>1</v>
@@ -4260,45 +4260,45 @@
       <c r="F98" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G98" s="8" t="s">
-        <v>60</v>
+      <c r="G98" s="8">
+        <v>3800</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="B99" s="1">
-        <v>60571</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E99" s="8">
-        <v>0.01</v>
+        <v>131113</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E99" s="13">
+        <v>1</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G99" s="8">
-        <v>5.3000000000000001E-6</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B100" s="1">
-        <v>84662</v>
+        <v>117840</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E100" s="13">
         <v>1</v>
@@ -4306,229 +4306,229 @@
       <c r="F100" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G100" s="8">
-        <v>3800</v>
+      <c r="G100" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B101" s="1">
-        <v>131113</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E101" s="13">
-        <v>1</v>
+        <v>304</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E101" s="8">
+        <v>0.01</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G101" s="8">
-        <v>84000</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B102" s="1">
-        <v>84742</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E102" s="13">
-        <v>1</v>
+        <v>1031078</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E102" s="8">
+        <v>0.01</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G102" s="8">
-        <v>400</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="B103" s="1">
-        <v>117840</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E103" s="13">
-        <v>1</v>
+        <v>72208</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E103" s="8">
+        <v>0.01</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G103" s="8" t="s">
-        <v>60</v>
+      <c r="G103" s="8">
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>351</v>
+        <v>471</v>
+      </c>
+      <c r="B104" s="1">
+        <v>7421934</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="E104" s="8">
-        <v>1.0000000000000001E-5</v>
+        <v>0.01</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G104" s="8">
-        <v>5.1E-10</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>305</v>
+        <v>128</v>
+      </c>
+      <c r="B105" s="1">
+        <v>100414</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="E105" s="8">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G105" s="8">
-        <v>5.6000000000000001E-2</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>438</v>
+        <v>236</v>
       </c>
       <c r="B106" s="1">
-        <v>959988</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="E106" s="8">
-        <v>0.01</v>
+        <v>206440</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E106" s="13">
+        <v>2</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G106" s="8">
-        <v>5.6000000000000001E-2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>437</v>
+        <v>238</v>
       </c>
       <c r="B107" s="1">
-        <v>33213659</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E107" s="8">
-        <v>0.01</v>
+        <v>86737</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E107" s="13">
+        <v>1</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G107" s="8">
-        <v>5.6000000000000001E-2</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B108" s="1">
-        <v>1031078</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>303</v>
+        <v>63</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E108" s="8">
-        <v>0.01</v>
+        <v>200</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G108" s="8">
-        <v>8.5</v>
+      <c r="G108" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B109" s="1">
-        <v>72208</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E109" s="8">
-        <v>0.01</v>
+        <v>398</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0.5</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G109" s="8">
-        <v>2.4E-2</v>
+      <c r="G109" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>471</v>
+        <v>312</v>
       </c>
       <c r="B110" s="1">
-        <v>7421934</v>
+        <v>76448</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E110" s="8">
         <v>0.01</v>
@@ -4537,251 +4537,251 @@
         <v>364</v>
       </c>
       <c r="G110" s="8">
-        <v>0.03</v>
+        <v>7.9000000000000006E-6</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>128</v>
+        <v>472</v>
       </c>
       <c r="B111" s="1">
-        <v>100414</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>129</v>
+        <v>1024573</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="E111" s="8">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G111" s="8">
-        <v>160</v>
+        <v>3.8999999999999999E-6</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B112" s="1">
-        <v>206440</v>
+        <v>118741</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E112" s="13">
-        <v>2</v>
+        <v>241</v>
+      </c>
+      <c r="E112" s="12">
+        <v>1</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G112" s="8">
-        <v>14</v>
+        <v>2.9E-5</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B113" s="1">
-        <v>86737</v>
+        <v>87683</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E113" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G113" s="8">
-        <v>390</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>64</v>
+        <v>244</v>
+      </c>
+      <c r="B114" s="1">
+        <v>77474</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E114" s="8">
-        <v>200</v>
+        <v>245</v>
+      </c>
+      <c r="E114" s="13">
+        <v>2</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G114" s="8" t="s">
-        <v>60</v>
+      <c r="G114" s="8">
+        <v>30</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>485</v>
+        <v>246</v>
       </c>
       <c r="B115" s="1">
-        <v>86500</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E115" s="8">
+        <v>67721</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E115" s="13">
         <v>1</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G115" s="8">
-        <v>0.01</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B116" s="1">
-        <v>76448</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>313</v>
+        <v>384</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>345</v>
       </c>
       <c r="E116" s="8">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G116" s="8">
-        <v>7.9000000000000006E-6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="B117" s="1">
-        <v>1024573</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="E117" s="8">
-        <v>0.01</v>
+        <v>193395</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="E117" s="12">
+        <v>0.5</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G117" s="8">
-        <v>3.8999999999999999E-6</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B118" s="1">
-        <v>118741</v>
+        <v>376</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="E118" s="12">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G118" s="8">
-        <v>2.9E-5</v>
+        <v>60</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>242</v>
+        <v>421</v>
       </c>
       <c r="B119" s="1">
-        <v>87683</v>
+        <v>7439896</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E119" s="13">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="E119" s="8">
+        <v>100</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G119" s="8">
-        <v>0.36</v>
+      <c r="G119" s="13">
+        <v>1000</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B120" s="1">
-        <v>77474</v>
+        <v>78591</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E120" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G120" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>246</v>
+        <v>404</v>
       </c>
       <c r="B121" s="1">
-        <v>67721</v>
+        <v>7439921</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>246</v>
+        <v>31</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="E121" s="13">
         <v>1</v>
@@ -4789,301 +4789,301 @@
       <c r="F121" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G121" s="8">
-        <v>0.28999999999999998</v>
+      <c r="G121" s="13">
+        <v>2.5166437242964461</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B122" s="16" t="s">
-        <v>345</v>
+        <v>422</v>
+      </c>
+      <c r="B122" s="1">
+        <v>7439921</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>344</v>
+        <v>29</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="E122" s="8">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="E122" s="13">
+        <v>1</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G122" s="8">
-        <v>2</v>
+      <c r="G122" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B123" s="1">
-        <v>193395</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E123" s="12">
-        <v>0.5</v>
+        <v>58899</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E123" s="8">
+        <v>0.01</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G123" s="8">
-        <v>1.2999999999999999E-3</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B124" s="1">
-        <v>7439896</v>
+        <v>423</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E124" s="8">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G124" s="13">
-        <v>1000</v>
+      <c r="G124" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="B125" s="1">
-        <v>78591</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E125" s="13">
-        <v>5</v>
+        <v>121755</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E125" s="8">
+        <v>0.2</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G125" s="8">
-        <v>27</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B126" s="1">
-        <v>7439921</v>
+        <v>424</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>83</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E126" s="13">
-        <v>1</v>
+        <v>83</v>
+      </c>
+      <c r="E126" s="17">
+        <v>10</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G126" s="13">
-        <v>2.5166437242964461</v>
+      <c r="G126" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="B127" s="1">
-        <v>7439921</v>
+        <v>541731</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E127" s="13">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="E127" s="8">
+        <v>0.5</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G127" s="13" t="s">
-        <v>60</v>
+      <c r="G127" s="8">
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>79</v>
+        <v>433</v>
+      </c>
+      <c r="B128" s="1">
+        <v>7439976</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D128" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E128" s="8">
-        <v>250</v>
+        <v>34</v>
+      </c>
+      <c r="E128" s="5">
+        <v>1E-3</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G128" s="8" t="s">
-        <v>60</v>
+      <c r="G128" s="18">
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B129" s="1">
-        <v>121755</v>
+        <v>72435</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E129" s="8">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G129" s="8">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>83</v>
+        <v>473</v>
+      </c>
+      <c r="B130" s="1">
+        <v>74839</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E130" s="17">
-        <v>10</v>
+        <v>131</v>
+      </c>
+      <c r="E130" s="13">
+        <v>1</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G130" s="8" t="s">
-        <v>60</v>
+      <c r="G130" s="8">
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="B131" s="1">
-        <v>7439976</v>
+        <v>75092</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E131" s="5">
-        <v>1E-3</v>
+        <v>135</v>
+      </c>
+      <c r="E131" s="13">
+        <v>2</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G131" s="18">
-        <v>1.2E-2</v>
+      <c r="G131" s="8">
+        <v>4.3</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B132" s="1">
-        <v>72435</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="E132" s="8">
-        <v>0.01</v>
+        <v>385</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D132" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E132" s="6">
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G132" s="8">
-        <v>0.03</v>
+      <c r="G132" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>473</v>
+        <v>320</v>
       </c>
       <c r="B133" s="1">
-        <v>74839</v>
-      </c>
-      <c r="C133" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E133" s="13">
-        <v>0.5</v>
+        <v>2385855</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E133" s="8">
+        <v>0.01</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G133" s="8">
-        <v>37</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B134" s="1">
-        <v>74873</v>
+        <v>425</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E134" s="13">
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="E134" s="17">
+        <v>10</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>364</v>
@@ -5094,113 +5094,113 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>386</v>
+        <v>501</v>
+      </c>
+      <c r="B135" s="1">
+        <v>91203</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E135" s="6">
-        <v>2.0000000000000002E-5</v>
+        <v>253</v>
+      </c>
+      <c r="E135" s="13">
+        <v>1</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G135" s="13" t="s">
+      <c r="G135" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="B136" s="1">
-        <v>75092</v>
+        <v>7440020</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E136" s="13">
-        <v>0.5</v>
+        <v>40</v>
+      </c>
+      <c r="E136" s="8">
+        <v>10</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G136" s="8">
-        <v>4.3</v>
+      <c r="G136" s="13">
+        <v>52.006539397853551</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>320</v>
+        <v>426</v>
       </c>
       <c r="B137" s="1">
-        <v>2385855</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>321</v>
+        <v>7440020</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="E137" s="8">
-        <v>0.01</v>
+        <v>10</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G137" s="8">
-        <v>1E-3</v>
+      <c r="G137" s="13">
+        <v>140</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>81</v>
+        <v>502</v>
+      </c>
+      <c r="B138" s="1">
+        <v>14797558</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E138" s="17">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E138" s="8">
+        <v>100</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G138" s="8" t="s">
-        <v>60</v>
+      <c r="G138" s="8">
+        <v>10000</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C139" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D139" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D139" s="9" t="s">
         <v>60</v>
       </c>
       <c r="E139" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F139" s="8" t="s">
+      <c r="F139" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G139" s="8" t="s">
@@ -5209,229 +5209,229 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F140" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>60</v>
+        <v>254</v>
+      </c>
+      <c r="B140" s="1">
+        <v>98953</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E140" s="13">
+        <v>1</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G140" s="8">
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C141" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D141" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F141" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>60</v>
+        <v>354</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E141" s="13">
+        <v>2</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G141" s="8">
+        <v>7.9000000000000001E-4</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>60</v>
+        <v>503</v>
+      </c>
+      <c r="B142" s="1">
+        <v>62759</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>60</v>
+        <v>257</v>
+      </c>
+      <c r="E142" s="13">
+        <v>2</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="G142" s="8">
+        <v>6.8000000000000005E-4</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>60</v>
+        <v>387</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>353</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>60</v>
+        <v>352</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E143" s="8" t="s">
-        <v>60</v>
+        <v>353</v>
+      </c>
+      <c r="E143" s="13">
+        <v>2</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="G143" s="8">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E144" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G144" s="8" t="s">
-        <v>60</v>
+        <v>504</v>
+      </c>
+      <c r="B144" s="1">
+        <v>621647</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D144" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="E144" s="13">
+        <v>2</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G144" s="8">
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E145" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F145" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G145" s="8" t="s">
-        <v>60</v>
+        <v>505</v>
+      </c>
+      <c r="B145" s="1">
+        <v>86306</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E145" s="13">
+        <v>1</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G145" s="8">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>60</v>
+        <v>356</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E146" s="13">
+        <v>2</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G146" s="8">
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D147" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E147" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G147" s="8" t="s">
-        <v>60</v>
+        <v>495</v>
+      </c>
+      <c r="B147" s="1">
+        <v>95578</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E147" s="13">
+        <v>1</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G147" s="8">
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>60</v>
+        <v>494</v>
+      </c>
+      <c r="B148" s="1">
+        <v>95501</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>60</v>
+        <v>111</v>
+      </c>
+      <c r="E148" s="8">
+        <v>0.5</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="G148" s="8">
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>60</v>
+        <v>493</v>
+      </c>
+      <c r="B149" s="1">
+        <v>88755</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>60</v>
+        <v>168</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E149" s="8" t="s">
-        <v>60</v>
+        <v>169</v>
+      </c>
+      <c r="E149" s="13">
+        <v>2</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>60</v>
+        <v>364</v>
       </c>
       <c r="G149" s="8" t="s">
         <v>60</v>
@@ -5439,108 +5439,108 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E150" s="8" t="s">
-        <v>60</v>
+        <v>492</v>
+      </c>
+      <c r="B150" s="1">
+        <v>72548</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E150" s="8">
+        <v>0.01</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="G150" s="8">
+        <v>3.1000000000000001E-5</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E151" s="8" t="s">
-        <v>60</v>
+        <v>496</v>
+      </c>
+      <c r="B151" s="1">
+        <v>72559</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E151" s="8">
+        <v>0.01</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G151" s="8" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="G151" s="8">
+        <v>2.1999999999999999E-5</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E152" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F152" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G152" s="8" t="s">
-        <v>60</v>
+        <v>497</v>
+      </c>
+      <c r="B152" s="1">
+        <v>50293</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E152" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G152" s="8">
+        <v>2.1999999999999999E-5</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E153" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F153" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G153" s="8" t="s">
-        <v>60</v>
+        <v>322</v>
+      </c>
+      <c r="B153" s="1">
+        <v>56382</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E153" s="8">
+        <v>10</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G153" s="8">
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="B154" s="1">
-        <v>91203</v>
+        <v>101553</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>252</v>
+        <v>208</v>
       </c>
       <c r="D154" s="9" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="E154" s="13">
         <v>1</v>
@@ -5554,154 +5554,154 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>405</v>
+        <v>506</v>
       </c>
       <c r="B155" s="1">
-        <v>7440020</v>
+        <v>59507</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="D155" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="E155" s="8">
-        <v>10</v>
+        <v>157</v>
+      </c>
+      <c r="E155" s="13">
+        <v>1</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G155" s="13">
-        <v>52.006539397853551</v>
+      <c r="G155" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="B156" s="1">
-        <v>7440020</v>
+        <v>7005723</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="D156" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E156" s="8">
-        <v>10</v>
+        <v>215</v>
+      </c>
+      <c r="E156" s="13">
+        <v>1</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G156" s="13">
-        <v>140</v>
+      <c r="G156" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B157" s="1">
-        <v>14797558</v>
+        <v>106467</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="D157" s="9" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="E157" s="8">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G157" s="8">
-        <v>10000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B158" s="1">
-        <v>98953</v>
+        <v>608935</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E158" s="13">
+        <v>263</v>
+      </c>
+      <c r="E158" s="12">
         <v>1</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G158" s="8">
-        <v>14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B159" s="15" t="s">
-        <v>353</v>
+        <v>172</v>
+      </c>
+      <c r="B159" s="1">
+        <v>87865</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>352</v>
+        <v>172</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E159" s="13">
-        <v>2</v>
+        <v>173</v>
+      </c>
+      <c r="E159" s="8">
+        <v>1</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G159" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B160" s="15" t="s">
-        <v>355</v>
+        <v>264</v>
+      </c>
+      <c r="B160" s="1">
+        <v>85018</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="E160" s="13">
-        <v>2</v>
+        <v>265</v>
+      </c>
+      <c r="E160" s="12">
+        <v>1</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G160" s="8">
-        <v>7.9000000000000001E-4</v>
+      <c r="G160" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>503</v>
+        <v>174</v>
       </c>
       <c r="B161" s="1">
-        <v>62759</v>
+        <v>108952</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="E161" s="13">
         <v>1</v>
@@ -5710,231 +5710,231 @@
         <v>364</v>
       </c>
       <c r="G161" s="8">
-        <v>6.8000000000000005E-4</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B162" s="1">
-        <v>621647</v>
+        <v>396</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E162" s="13">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E162" s="8">
+        <v>10</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G162" s="8">
-        <v>4.5999999999999999E-3</v>
+      <c r="G162" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B163" s="1">
-        <v>86306</v>
+        <v>388</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>359</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>260</v>
+        <v>358</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E163" s="13">
-        <v>1</v>
+        <v>359</v>
+      </c>
+      <c r="E163" s="8">
+        <v>10</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G163" s="8">
-        <v>0.55000000000000004</v>
+      <c r="G163" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B164" s="15" t="s">
-        <v>357</v>
+        <v>508</v>
+      </c>
+      <c r="B164" s="1">
+        <v>100027</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>356</v>
+        <v>170</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>357</v>
+        <v>171</v>
       </c>
       <c r="E164" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G164" s="8">
-        <v>1.6E-2</v>
+      <c r="G164" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>322</v>
+        <v>266</v>
       </c>
       <c r="B165" s="1">
-        <v>56382</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E165" s="8">
-        <v>10</v>
+        <v>129000</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E165" s="13">
+        <v>1</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G165" s="8">
-        <v>1.2999999999999999E-2</v>
+        <v>290</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>457</v>
+        <v>406</v>
       </c>
       <c r="B166" s="1">
-        <v>12674112</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E166" s="8">
-        <v>0.5</v>
+        <v>7782492</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E166" s="13">
+        <v>1</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G166" s="8" t="s">
-        <v>60</v>
+      <c r="G166" s="13">
+        <v>4.2412000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="B167" s="1">
-        <v>11104282</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="E167" s="8">
-        <v>0.5</v>
+        <v>7782492</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E167" s="13">
+        <v>1</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G167" s="8" t="s">
-        <v>60</v>
+      <c r="G167" s="13">
+        <v>120</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
       <c r="B168" s="1">
-        <v>11141165</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E168" s="8">
-        <v>0.5</v>
+        <v>7440224</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E168" s="12">
+        <v>0.1</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G168" s="8" t="s">
-        <v>60</v>
+      <c r="G168" s="13">
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="B169" s="1">
-        <v>53469219</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E169" s="8">
-        <v>0.5</v>
+        <v>7440224</v>
+      </c>
+      <c r="C169" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E169" s="12">
+        <v>0.1</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G169" s="8" t="s">
+      <c r="G169" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B170" s="1">
-        <v>12672296</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E170" s="8">
-        <v>0.5</v>
+        <v>378</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C170" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D170" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="E170" s="13">
+        <v>1</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G170" s="8" t="s">
-        <v>60</v>
+      <c r="G170" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B171" s="1">
-        <v>11097691</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>339</v>
+        <v>65</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C171" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D171" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="E171" s="8">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>364</v>
@@ -5945,19 +5945,19 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B172" s="1">
-        <v>11096825</v>
+        <v>389</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>340</v>
+        <v>67</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>341</v>
+        <v>68</v>
       </c>
       <c r="E172" s="8">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>364</v>
@@ -5968,19 +5968,19 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="B173" s="1">
-        <v>59507</v>
+        <v>391</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E173" s="13">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="E173" s="8">
+        <v>50</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>364</v>
@@ -5991,68 +5991,68 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B174" s="1">
-        <v>608935</v>
+        <v>392</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>262</v>
+        <v>60</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E174" s="12">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G174" s="8">
-        <v>0.15</v>
+        <v>60</v>
+      </c>
+      <c r="G174" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B175" s="1">
-        <v>87865</v>
+        <v>393</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E175" s="8">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G175" s="8">
-        <v>0.15</v>
+        <v>60</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B176" s="1">
-        <v>85018</v>
+        <v>394</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E176" s="12">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>364</v>
+        <v>60</v>
       </c>
       <c r="G176" s="8" t="s">
         <v>60</v>
@@ -6060,482 +6060,482 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B177" s="1">
-        <v>108952</v>
+        <v>395</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C177" s="9" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E177" s="13">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G177" s="8">
-        <v>9400</v>
+        <v>60</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B178" s="15" t="s">
-        <v>359</v>
+        <v>138</v>
+      </c>
+      <c r="B178" s="2">
+        <v>127184</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>358</v>
+        <v>138</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>359</v>
+        <v>139</v>
       </c>
       <c r="E178" s="8">
-        <v>10</v>
+        <v>0.5</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G178" s="8" t="s">
-        <v>60</v>
+      <c r="G178" s="8">
+        <v>0.24</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>266</v>
+        <v>429</v>
       </c>
       <c r="B179" s="1">
-        <v>129000</v>
+        <v>7440280</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>266</v>
+        <v>49</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E179" s="13">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="E179" s="12">
+        <v>0.1</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G179" s="8">
-        <v>290</v>
+      <c r="G179" s="12">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B180" s="1">
-        <v>7782492</v>
+        <v>430</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E180" s="13">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="E180" s="17">
+        <v>10</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G180" s="13">
-        <v>4.2412000000000001</v>
+      <c r="G180" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B181" s="1">
-        <v>7782492</v>
+        <v>431</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E181" s="13">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="E181" s="17">
+        <v>10</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G181" s="13">
-        <v>120</v>
+      <c r="G181" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>407</v>
+        <v>140</v>
       </c>
       <c r="B182" s="1">
-        <v>7440224</v>
+        <v>108883</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E182" s="12">
-        <v>0.1</v>
+        <v>141</v>
+      </c>
+      <c r="E182" s="8">
+        <v>0.5</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G182" s="13">
-        <v>8.5000000000000006E-2</v>
+      <c r="G182" s="8">
+        <v>720</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B183" s="1">
-        <v>7440224</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D183" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E183" s="12">
-        <v>0.1</v>
+        <v>326</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E183" s="8">
+        <v>0.5</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G183" s="13" t="s">
-        <v>60</v>
+      <c r="G183" s="8">
+        <v>6.3999999999999997E-6</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B184" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D184" s="9" t="s">
-        <v>66</v>
+        <v>324</v>
+      </c>
+      <c r="B184" s="1">
+        <v>8001352</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>325</v>
       </c>
       <c r="E184" s="8">
-        <v>250</v>
+        <v>0.5</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G184" s="8" t="s">
-        <v>60</v>
+      <c r="G184" s="8">
+        <v>2.8E-5</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B185" s="15" t="s">
-        <v>390</v>
+        <v>446</v>
+      </c>
+      <c r="B185" s="1">
+        <v>156605</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="E185" s="8">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G185" s="8" t="s">
-        <v>60</v>
+      <c r="G185" s="8">
+        <v>120</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>60</v>
+        <v>445</v>
+      </c>
+      <c r="B186" s="1">
+        <v>75252</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E186" s="8">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G186" s="8" t="s">
-        <v>60</v>
+      <c r="G186" s="8">
+        <v>3.3</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B187" s="2">
-        <v>127184</v>
+        <v>397</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>362</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D187" s="9" t="s">
-        <v>139</v>
+        <v>361</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="E187" s="8">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G187" s="8">
-        <v>0.24</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="B188" s="1">
-        <v>7440280</v>
+        <v>79016</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E188" s="12">
-        <v>0.1</v>
+        <v>147</v>
+      </c>
+      <c r="E188" s="8">
+        <v>0.5</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G188" s="12">
-        <v>4.2999999999999997E-2</v>
+      <c r="G188" s="8">
+        <v>1.4</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B189" s="15" t="s">
-        <v>85</v>
+        <v>443</v>
+      </c>
+      <c r="B189" s="1">
+        <v>75014</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E189" s="17">
-        <v>10</v>
+        <v>149</v>
+      </c>
+      <c r="E189" s="8">
+        <v>0.5</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G189" s="8" t="s">
-        <v>60</v>
+      <c r="G189" s="8">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B190" s="15" t="s">
-        <v>87</v>
+        <v>408</v>
+      </c>
+      <c r="B190" s="1">
+        <v>7440666</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E190" s="17">
-        <v>10</v>
+        <v>54</v>
+      </c>
+      <c r="E190" s="13">
+        <v>5</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G190" s="8" t="s">
-        <v>60</v>
+      <c r="G190" s="13">
+        <v>117.18045413475284</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>140</v>
+        <v>432</v>
       </c>
       <c r="B191" s="1">
-        <v>108883</v>
+        <v>7440666</v>
       </c>
       <c r="C191" s="9" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E191" s="8">
-        <v>0.5</v>
+        <v>52</v>
+      </c>
+      <c r="E191" s="13">
+        <v>5</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G191" s="8">
-        <v>720</v>
+      <c r="G191" s="13">
+        <v>2100</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E192" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F192" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G192" s="8">
-        <v>6.3999999999999997E-6</v>
+        <v>509</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G192" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E193" s="8">
-        <v>10</v>
-      </c>
-      <c r="F193" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G193" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G193" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B194" s="1">
-        <v>8001352</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E194" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F194" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G194" s="8">
-        <v>2.8E-5</v>
+        <v>511</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B195" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E195" s="8">
-        <v>2</v>
-      </c>
-      <c r="F195" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G195" s="8">
-        <v>6.3E-2</v>
+        <v>512</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B196" s="1">
-        <v>79016</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="D196" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E196" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F196" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G196" s="8">
-        <v>1.4</v>
+        <v>513</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B197" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D197" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E197" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F197" s="2" t="s">
-        <v>364</v>
+        <v>514</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="G197" s="8" t="s">
         <v>60</v>
@@ -6543,79 +6543,75 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B198" s="1">
-        <v>75014</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D198" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E198" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G198" s="8">
-        <v>2.3E-2</v>
+        <v>515</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B199" s="1">
-        <v>7440666</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D199" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E199" s="13">
-        <v>5</v>
-      </c>
-      <c r="F199" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G199" s="13">
-        <v>117.18045413475284</v>
+        <v>516</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B200" s="1">
-        <v>7440666</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D200" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E200" s="13">
-        <v>5</v>
-      </c>
-      <c r="F200" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G200" s="13">
-        <v>2100</v>
+        <v>517</v>
+      </c>
+      <c r="B200" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G200">
-    <sortState ref="A2:G200">
-      <sortCondition ref="C1:C200"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:G200"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2_21_19_QLs.xlsx
+++ b/2_21_19_QLs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\R_Scripts\EDD_Data_QC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\deqlab1\WQDataSteward\R_Scripts\EDD_Data_QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="6870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19155" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1994,7 +1994,7 @@
   <dimension ref="A1:V200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B192" sqref="B192:G200"/>
     </sheetView>
   </sheetViews>
@@ -2840,22 +2840,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="8">
-        <v>50</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>364</v>
+        <v>517</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>60</v>
@@ -2863,85 +2863,85 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B38" s="1">
-        <v>120127</v>
+        <v>411</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E38" s="13">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="E38" s="8">
+        <v>50</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G38" s="8">
-        <v>2900</v>
+      <c r="G38" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>412</v>
+        <v>184</v>
       </c>
       <c r="B39" s="1">
-        <v>7440360</v>
+        <v>120127</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="12">
-        <v>0.5</v>
+        <v>185</v>
+      </c>
+      <c r="E39" s="13">
+        <v>1</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G39" s="13">
-        <v>5.0999999999999996</v>
+      <c r="G39" s="8">
+        <v>2900</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
       <c r="B40" s="1">
-        <v>12674112</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E40" s="8">
+        <v>7440360</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="12">
         <v>0.5</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>60</v>
+      <c r="G40" s="13">
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B41" s="1">
-        <v>11104282</v>
+        <v>12674112</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E41" s="8">
         <v>0.5</v>
@@ -2955,16 +2955,16 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B42" s="1">
-        <v>11141165</v>
+        <v>11104282</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E42" s="8">
         <v>0.5</v>
@@ -2978,16 +2978,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B43" s="1">
-        <v>53469219</v>
+        <v>11141165</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E43" s="8">
         <v>0.5</v>
@@ -3001,16 +3001,16 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B44" s="1">
-        <v>12672296</v>
+        <v>53469219</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E44" s="8">
         <v>0.5</v>
@@ -3024,16 +3024,16 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B45" s="1">
-        <v>11097691</v>
+        <v>12672296</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E45" s="8">
         <v>0.5</v>
@@ -3047,16 +3047,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B46" s="1">
-        <v>11096825</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>341</v>
+        <v>11097691</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>339</v>
       </c>
       <c r="E46" s="8">
         <v>0.5</v>
@@ -3070,39 +3070,39 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="B47" s="2">
-        <v>7440382</v>
+        <v>463</v>
+      </c>
+      <c r="B47" s="1">
+        <v>11096825</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>8</v>
+        <v>340</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="13">
-        <v>1</v>
+        <v>341</v>
+      </c>
+      <c r="E47" s="8">
+        <v>0.5</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G47" s="13">
-        <v>150</v>
+      <c r="G47" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>60</v>
+        <v>435</v>
+      </c>
+      <c r="B48" s="2">
+        <v>7440382</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E48" s="13">
         <v>1</v>
@@ -3111,182 +3111,182 @@
         <v>364</v>
       </c>
       <c r="G48" s="13">
-        <v>2.1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="B49" s="2">
-        <v>7440382</v>
+        <v>373</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="12">
-        <v>0.5</v>
+        <v>7</v>
+      </c>
+      <c r="E49" s="13">
+        <v>1</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>60</v>
+      <c r="G49" s="13">
+        <v>2.1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="B50" s="1">
-        <v>86500</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E50" s="8">
-        <v>1</v>
+        <v>413</v>
+      </c>
+      <c r="B50" s="2">
+        <v>7440382</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="12">
+        <v>0.5</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G50" s="8">
-        <v>0.01</v>
+      <c r="G50" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E51" s="13">
-        <v>5</v>
+        <v>485</v>
+      </c>
+      <c r="B51" s="1">
+        <v>86500</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E51" s="8">
+        <v>1</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G51" s="8" t="s">
-        <v>60</v>
+      <c r="G51" s="8">
+        <v>0.01</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>414</v>
+        <v>186</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="12">
-        <v>0.1</v>
+        <v>187</v>
+      </c>
+      <c r="E52" s="13">
+        <v>5</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G52" s="8">
-        <v>1000</v>
+      <c r="G52" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="B53" s="1">
-        <v>56553</v>
+        <v>414</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>73</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="E53" s="12">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G53" s="8">
-        <v>1.2999999999999999E-3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>92</v>
+        <v>486</v>
       </c>
       <c r="B54" s="1">
-        <v>71432</v>
+        <v>56553</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E54" s="8">
+        <v>191</v>
+      </c>
+      <c r="E54" s="12">
         <v>0.5</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G54" s="8">
-        <v>0.44</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>279</v>
+        <v>92</v>
+      </c>
+      <c r="B55" s="1">
+        <v>71432</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="E55" s="8">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G55" s="8">
-        <v>1.6000000000000001E-3</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E56" s="8">
         <v>0.01</v>
@@ -3294,68 +3294,68 @@
       <c r="F56" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>60</v>
+      <c r="G56" s="8">
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B57" s="1">
-        <v>92875</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>189</v>
+        <v>380</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="E57" s="8">
-        <v>50</v>
+        <v>0.01</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G57" s="8">
-        <v>1.8E-5</v>
+      <c r="G57" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B58" s="1">
-        <v>205992</v>
+        <v>92875</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E58" s="12">
-        <v>0.5</v>
+        <v>189</v>
+      </c>
+      <c r="E58" s="8">
+        <v>50</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G58" s="8">
-        <v>1.2999999999999999E-3</v>
+        <v>1.8E-5</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>487</v>
+        <v>194</v>
       </c>
       <c r="B59" s="1">
-        <v>50328</v>
+        <v>205992</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E59" s="12">
         <v>0.5</v>
@@ -3369,39 +3369,39 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B60" s="1">
-        <v>191242</v>
+        <v>50328</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E60" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>60</v>
+      <c r="G60" s="8">
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B61" s="1">
-        <v>207089</v>
+        <v>191242</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E61" s="12">
         <v>1</v>
@@ -3409,68 +3409,68 @@
       <c r="F61" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G61" s="8">
-        <v>1.2999999999999999E-3</v>
+      <c r="G61" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>415</v>
+        <v>489</v>
       </c>
       <c r="B62" s="1">
-        <v>7440417</v>
+        <v>207089</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="E62" s="12">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G62" s="13" t="s">
-        <v>60</v>
+      <c r="G62" s="8">
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>464</v>
+        <v>415</v>
       </c>
       <c r="B63" s="1">
-        <v>108601</v>
+        <v>7440417</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E63" s="13">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="E63" s="12">
+        <v>0.1</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G63" s="8">
-        <v>1200</v>
+      <c r="G63" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="B64" s="1">
-        <v>111911</v>
+        <v>108601</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E64" s="13">
         <v>2</v>
@@ -3478,71 +3478,71 @@
       <c r="F64" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G64" s="8" t="s">
-        <v>60</v>
+      <c r="G64" s="8">
+        <v>1200</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>465</v>
+        <v>490</v>
       </c>
       <c r="B65" s="1">
-        <v>111444</v>
+        <v>111911</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E65" s="12">
-        <v>1</v>
+        <v>201</v>
+      </c>
+      <c r="E65" s="13">
+        <v>2</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G65" s="8">
-        <v>0.02</v>
+      <c r="G65" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>151</v>
+        <v>465</v>
+      </c>
+      <c r="B66" s="1">
+        <v>111444</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
       <c r="E66" s="12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G66" s="8" t="s">
-        <v>60</v>
+      <c r="G66" s="8">
+        <v>0.02</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="8">
-        <v>50</v>
+        <v>151</v>
+      </c>
+      <c r="E67" s="12">
+        <v>0.5</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>364</v>
@@ -3553,19 +3553,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>61</v>
+        <v>416</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E68" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>364</v>
@@ -3576,59 +3576,59 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B69" s="1">
-        <v>85687</v>
+        <v>61</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" s="13">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="E69" s="8">
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G69" s="8">
-        <v>190</v>
+      <c r="G69" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>401</v>
+        <v>466</v>
       </c>
       <c r="B70" s="1">
-        <v>7440439</v>
+        <v>85687</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E70" s="12">
-        <v>0.1</v>
+        <v>211</v>
+      </c>
+      <c r="E70" s="13">
+        <v>1</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G70" s="13">
-        <v>0.24599634148460026</v>
+      <c r="G70" s="8">
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="B71" s="1">
         <v>7440439</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>13</v>
@@ -3640,136 +3640,136 @@
         <v>364</v>
       </c>
       <c r="G71" s="13">
-        <v>3.9221186109975661</v>
+        <v>0.24599634148460026</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="B72" s="1">
-        <v>56235</v>
+        <v>7440439</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" s="8">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0.1</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G72" s="8">
-        <v>0.1</v>
+      <c r="G72" s="13">
+        <v>3.9221186109975661</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B73" s="1">
-        <v>57749</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E73" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G73" s="8">
-        <v>8.1000000000000004E-5</v>
+        <v>516</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>343</v>
+        <v>467</v>
+      </c>
+      <c r="B74" s="1">
+        <v>56235</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>342</v>
+        <v>96</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>343</v>
+        <v>97</v>
       </c>
       <c r="E74" s="8">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G74" s="8" t="s">
-        <v>60</v>
+      <c r="G74" s="8">
+        <v>0.1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>284</v>
       </c>
       <c r="B75" s="1">
-        <v>108907</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>99</v>
+        <v>57749</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="E75" s="8">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G75" s="8">
-        <v>74</v>
+        <v>8.1000000000000004E-5</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E76" s="8">
         <v>100</v>
       </c>
-      <c r="B76" s="1">
-        <v>124481</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E76" s="8">
-        <v>0.5</v>
-      </c>
       <c r="F76" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G76" s="8">
-        <v>0.31</v>
+      <c r="G76" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B77" s="1">
-        <v>75003</v>
+        <v>108907</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E77" s="8">
         <v>0.5</v>
@@ -3777,22 +3777,22 @@
       <c r="F77" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G77" s="8" t="s">
-        <v>60</v>
+      <c r="G77" s="8">
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B78" s="1">
-        <v>67663</v>
+        <v>124481</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E78" s="8">
         <v>0.5</v>
@@ -3801,24 +3801,24 @@
         <v>364</v>
       </c>
       <c r="G78" s="8">
-        <v>260</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>375</v>
+        <v>102</v>
       </c>
       <c r="B79" s="1">
-        <v>74873</v>
+        <v>75003</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="E79" s="13">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="E79" s="8">
+        <v>0.5</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>364</v>
@@ -3829,269 +3829,269 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
       <c r="B80" s="1">
-        <v>2921882</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>287</v>
+        <v>67663</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="E80" s="8">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G80" s="8">
-        <v>4.1000000000000002E-2</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="B81" s="1">
-        <v>16065831</v>
+        <v>74873</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>60</v>
+        <v>133</v>
+      </c>
+      <c r="E81" s="13">
+        <v>1</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G81" s="13">
-        <v>74.114522080141811</v>
+      <c r="G81" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>410</v>
+        <v>286</v>
       </c>
       <c r="B82" s="1">
-        <v>18540299</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E82" s="13">
-        <v>2</v>
+        <v>2921882</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E82" s="8">
+        <v>0.01</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G82" s="13">
-        <v>10.581999999999999</v>
+      <c r="G82" s="8">
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B83" s="1">
-        <v>7440473</v>
+        <v>16065831</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" s="8">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G83" s="13" t="s">
-        <v>60</v>
+      <c r="G83" s="13">
+        <v>74.114522080141811</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B84" s="1">
-        <v>7440473</v>
+        <v>18540299</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" s="12">
-        <v>0.4</v>
+        <v>22</v>
+      </c>
+      <c r="E84" s="13">
+        <v>2</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G84" s="13" t="s">
-        <v>60</v>
+      <c r="G84" s="13">
+        <v>10.581999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>216</v>
+        <v>402</v>
       </c>
       <c r="B85" s="1">
-        <v>218019</v>
+        <v>7440473</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E85" s="12">
-        <v>0.5</v>
+        <v>18</v>
+      </c>
+      <c r="E85" s="8">
+        <v>2</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G85" s="8">
-        <v>1.2999999999999999E-3</v>
+      <c r="G85" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>77</v>
+        <v>418</v>
+      </c>
+      <c r="B86" s="1">
+        <v>7440473</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E86" s="8">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="E86" s="12">
+        <v>0.4</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G86" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>403</v>
+        <v>216</v>
       </c>
       <c r="B87" s="1">
-        <v>7440508</v>
+        <v>218019</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="13">
-        <v>2</v>
+        <v>217</v>
+      </c>
+      <c r="E87" s="12">
+        <v>0.5</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G87" s="13" t="s">
-        <v>60</v>
+      <c r="G87" s="8">
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B88" s="1">
-        <v>7440508</v>
+        <v>419</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" s="13">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="E88" s="8">
+        <v>5</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G88" s="13">
-        <v>11.823841083208801</v>
+      <c r="G88" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B89" s="2">
-        <v>57125</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E89" s="13">
-        <v>5</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G89" s="13">
-        <v>130</v>
+        <v>509</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>60</v>
+        <v>403</v>
+      </c>
+      <c r="B90" s="1">
+        <v>7440508</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E90" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G90" s="13">
-        <v>5.2</v>
+      <c r="G90" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>288</v>
+        <v>420</v>
       </c>
       <c r="B91" s="1">
-        <v>8065483</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>289</v>
+        <v>7440508</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E91" s="13">
         <v>2</v>
@@ -4099,183 +4099,183 @@
       <c r="F91" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G91" s="8">
-        <v>0.1</v>
+      <c r="G91" s="13">
+        <v>11.823841083208801</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B92" s="1">
-        <v>117817</v>
+        <v>434</v>
+      </c>
+      <c r="B92" s="2">
+        <v>57125</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>207</v>
+        <v>56</v>
       </c>
       <c r="E92" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G92" s="8">
-        <v>0.2</v>
+      <c r="G92" s="13">
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B93" s="1">
-        <v>53703</v>
+        <v>436</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>222</v>
+        <v>57</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E93" s="12">
-        <v>0.5</v>
+        <v>58</v>
+      </c>
+      <c r="E93" s="13">
+        <v>5</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G93" s="8">
-        <v>1.2999999999999999E-3</v>
+      <c r="G93" s="13">
+        <v>5.2</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>469</v>
+        <v>288</v>
       </c>
       <c r="B94" s="1">
-        <v>84742</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>219</v>
+        <v>8065483</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="E94" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G94" s="8">
-        <v>400</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>468</v>
       </c>
       <c r="B95" s="1">
-        <v>75274</v>
+        <v>117817</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>108</v>
+        <v>206</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E95" s="8">
-        <v>0.5</v>
+        <v>207</v>
+      </c>
+      <c r="E95" s="13">
+        <v>1</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G95" s="8">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>153</v>
+        <v>491</v>
+      </c>
+      <c r="B96" s="1">
+        <v>53703</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="E96" s="13">
-        <v>1</v>
+        <v>223</v>
+      </c>
+      <c r="E96" s="12">
+        <v>0.5</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G96" s="8" t="s">
-        <v>60</v>
+      <c r="G96" s="8">
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>296</v>
+        <v>469</v>
       </c>
       <c r="B97" s="1">
-        <v>60571</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E97" s="8">
-        <v>0.01</v>
+        <v>84742</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E97" s="13">
+        <v>1</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G97" s="8">
-        <v>5.3000000000000001E-6</v>
+        <v>400</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="B98" s="1">
-        <v>84662</v>
+        <v>75274</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>226</v>
+        <v>108</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E98" s="13">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="E98" s="8">
+        <v>0.5</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G98" s="8">
-        <v>3800</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B99" s="1">
-        <v>131113</v>
+        <v>382</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>228</v>
+        <v>152</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="E99" s="13">
         <v>1</v>
@@ -4283,114 +4283,114 @@
       <c r="F99" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G99" s="8">
-        <v>84000</v>
+      <c r="G99" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>220</v>
+        <v>296</v>
       </c>
       <c r="B100" s="1">
-        <v>117840</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E100" s="13">
-        <v>1</v>
+        <v>60571</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E100" s="8">
+        <v>0.01</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G100" s="8" t="s">
-        <v>60</v>
+      <c r="G100" s="8">
+        <v>5.3000000000000001E-6</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E101" s="8">
-        <v>0.01</v>
+        <v>226</v>
+      </c>
+      <c r="B101" s="1">
+        <v>84662</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E101" s="13">
+        <v>1</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G101" s="8">
-        <v>5.6000000000000001E-2</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>470</v>
+        <v>228</v>
       </c>
       <c r="B102" s="1">
-        <v>1031078</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E102" s="8">
-        <v>0.01</v>
+        <v>131113</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E102" s="13">
+        <v>1</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G102" s="8">
-        <v>8.5</v>
+        <v>84000</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>306</v>
+        <v>220</v>
       </c>
       <c r="B103" s="1">
-        <v>72208</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="E103" s="8">
-        <v>0.01</v>
+        <v>117840</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" s="13">
+        <v>1</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G103" s="8">
-        <v>2.4E-2</v>
+      <c r="G103" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="B104" s="1">
-        <v>7421934</v>
+        <v>304</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>305</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E104" s="8">
         <v>0.01</v>
@@ -4399,343 +4399,343 @@
         <v>364</v>
       </c>
       <c r="G104" s="8">
-        <v>0.03</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>470</v>
       </c>
       <c r="B105" s="1">
-        <v>100414</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>129</v>
+        <v>1031078</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="E105" s="8">
-        <v>0.5</v>
+        <v>0.01</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G105" s="8">
-        <v>160</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>236</v>
+        <v>306</v>
       </c>
       <c r="B106" s="1">
-        <v>206440</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="E106" s="13">
-        <v>2</v>
+        <v>72208</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E106" s="8">
+        <v>0.01</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G106" s="8">
-        <v>14</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>238</v>
+        <v>471</v>
       </c>
       <c r="B107" s="1">
-        <v>86737</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E107" s="13">
-        <v>1</v>
+        <v>7421934</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E107" s="8">
+        <v>0.01</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G107" s="8">
-        <v>390</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>64</v>
+        <v>128</v>
+      </c>
+      <c r="B108" s="1">
+        <v>100414</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="E108" s="8">
-        <v>200</v>
+        <v>0.5</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G108" s="8" t="s">
-        <v>60</v>
+      <c r="G108" s="8">
+        <v>160</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>155</v>
+        <v>236</v>
+      </c>
+      <c r="B109" s="1">
+        <v>206440</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E109" s="12">
-        <v>0.5</v>
+        <v>237</v>
+      </c>
+      <c r="E109" s="13">
+        <v>2</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G109" s="8" t="s">
-        <v>60</v>
+      <c r="G109" s="8">
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="B110" s="1">
-        <v>76448</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E110" s="8">
-        <v>0.01</v>
+        <v>86737</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E110" s="13">
+        <v>1</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G110" s="8">
-        <v>7.9000000000000006E-6</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B111" s="1">
-        <v>1024573</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>315</v>
+        <v>63</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="E111" s="8">
-        <v>0.01</v>
+        <v>200</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G111" s="8">
-        <v>3.8999999999999999E-6</v>
+      <c r="G111" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B112" s="1">
-        <v>118741</v>
+        <v>398</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>155</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>241</v>
+        <v>155</v>
       </c>
       <c r="E112" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G112" s="8">
-        <v>2.9E-5</v>
+      <c r="G112" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="B113" s="1">
-        <v>87683</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E113" s="13">
-        <v>2</v>
+        <v>76448</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="E113" s="8">
+        <v>0.01</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G113" s="8">
-        <v>0.36</v>
+        <v>7.9000000000000006E-6</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>244</v>
+        <v>472</v>
       </c>
       <c r="B114" s="1">
-        <v>77474</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="D114" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="E114" s="13">
-        <v>2</v>
+        <v>1024573</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E114" s="8">
+        <v>0.01</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G114" s="8">
-        <v>30</v>
+        <v>3.8999999999999999E-6</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B115" s="1">
-        <v>67721</v>
+        <v>118741</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E115" s="13">
+        <v>241</v>
+      </c>
+      <c r="E115" s="12">
         <v>1</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G115" s="8">
-        <v>0.28999999999999998</v>
+        <v>2.9E-5</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>345</v>
+        <v>242</v>
+      </c>
+      <c r="B116" s="1">
+        <v>87683</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>344</v>
+        <v>242</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="E116" s="8">
-        <v>100</v>
+        <v>243</v>
+      </c>
+      <c r="E116" s="13">
+        <v>2</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G116" s="8">
-        <v>2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>498</v>
+        <v>244</v>
       </c>
       <c r="B117" s="1">
-        <v>193395</v>
+        <v>77474</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D117" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E117" s="12">
-        <v>0.5</v>
+        <v>245</v>
+      </c>
+      <c r="E117" s="13">
+        <v>2</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G117" s="8">
-        <v>1.2999999999999999E-3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>60</v>
+        <v>246</v>
+      </c>
+      <c r="B118" s="1">
+        <v>67721</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>60</v>
+        <v>247</v>
+      </c>
+      <c r="E118" s="13">
+        <v>1</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G118" s="8" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="G118" s="8">
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="B119" s="1">
-        <v>7439896</v>
+        <v>384</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>345</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>27</v>
+        <v>344</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>28</v>
+        <v>345</v>
       </c>
       <c r="E119" s="8">
         <v>100</v>
@@ -4743,574 +4743,574 @@
       <c r="F119" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G119" s="13">
-        <v>1000</v>
+      <c r="G119" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>250</v>
+        <v>498</v>
       </c>
       <c r="B120" s="1">
-        <v>78591</v>
+        <v>193395</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E120" s="13">
-        <v>5</v>
+        <v>249</v>
+      </c>
+      <c r="E120" s="12">
+        <v>0.5</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G120" s="8">
-        <v>27</v>
+        <v>1.2999999999999999E-3</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="B121" s="1">
-        <v>7439921</v>
+        <v>376</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E121" s="13">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G121" s="13">
-        <v>2.5166437242964461</v>
+        <v>60</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B122" s="1">
-        <v>7439921</v>
+        <v>7439896</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D122" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E122" s="13">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="E122" s="8">
+        <v>100</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G122" s="13" t="s">
-        <v>60</v>
+      <c r="G122" s="13">
+        <v>1000</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>499</v>
+        <v>250</v>
       </c>
       <c r="B123" s="1">
-        <v>58899</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="E123" s="8">
-        <v>0.01</v>
+        <v>78591</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E123" s="13">
+        <v>5</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G123" s="8">
-        <v>0.08</v>
+        <v>27</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>79</v>
+        <v>404</v>
+      </c>
+      <c r="B124" s="1">
+        <v>7439921</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D124" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E124" s="8">
-        <v>250</v>
+        <v>32</v>
+      </c>
+      <c r="E124" s="13">
+        <v>1</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G124" s="8" t="s">
-        <v>60</v>
+      <c r="G124" s="13">
+        <v>2.5166437242964461</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>316</v>
+        <v>422</v>
       </c>
       <c r="B125" s="1">
-        <v>121755</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E125" s="8">
-        <v>0.2</v>
+        <v>7439921</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125" s="13">
+        <v>1</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G125" s="8">
-        <v>0.1</v>
+      <c r="G125" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E126" s="17">
-        <v>10</v>
+        <v>499</v>
+      </c>
+      <c r="B126" s="1">
+        <v>58899</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E126" s="8">
+        <v>0.01</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G126" s="8" t="s">
-        <v>60</v>
+      <c r="G126" s="8">
+        <v>0.08</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B127" s="1">
-        <v>541731</v>
+        <v>423</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E127" s="8">
-        <v>0.5</v>
+        <v>250</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G127" s="8">
-        <v>80</v>
+      <c r="G127" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>433</v>
+        <v>316</v>
       </c>
       <c r="B128" s="1">
-        <v>7439976</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E128" s="5">
-        <v>1E-3</v>
+        <v>121755</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E128" s="8">
+        <v>0.2</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G128" s="18">
-        <v>1.2E-2</v>
+      <c r="G128" s="8">
+        <v>0.1</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B129" s="1">
-        <v>72435</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="E129" s="8">
-        <v>0.01</v>
+        <v>424</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E129" s="17">
+        <v>10</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G129" s="8">
-        <v>0.03</v>
+      <c r="G129" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="B130" s="1">
-        <v>74839</v>
+        <v>541731</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D130" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="E130" s="13">
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="E130" s="8">
+        <v>0.5</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G130" s="8">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="B131" s="1">
-        <v>75092</v>
+        <v>7439976</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="D131" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E131" s="13">
-        <v>2</v>
+        <v>34</v>
+      </c>
+      <c r="E131" s="5">
+        <v>1E-3</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G131" s="8">
-        <v>4.3</v>
+      <c r="G131" s="18">
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E132" s="6">
-        <v>2.0000000000000002E-5</v>
+        <v>318</v>
+      </c>
+      <c r="B132" s="1">
+        <v>72435</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E132" s="8">
+        <v>0.01</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G132" s="13" t="s">
-        <v>60</v>
+      <c r="G132" s="8">
+        <v>0.03</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>320</v>
+        <v>473</v>
       </c>
       <c r="B133" s="1">
-        <v>2385855</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E133" s="8">
-        <v>0.01</v>
+        <v>74839</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E133" s="13">
+        <v>1</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G133" s="8">
-        <v>1E-3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>81</v>
+        <v>474</v>
+      </c>
+      <c r="B134" s="1">
+        <v>75092</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E134" s="17">
-        <v>10</v>
+        <v>135</v>
+      </c>
+      <c r="E134" s="13">
+        <v>2</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G134" s="8" t="s">
-        <v>60</v>
+      <c r="G134" s="8">
+        <v>4.3</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B135" s="1">
-        <v>91203</v>
+        <v>385</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>386</v>
       </c>
       <c r="C135" s="9" t="s">
-        <v>252</v>
+        <v>35</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E135" s="13">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="E135" s="6">
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G135" s="8" t="s">
+      <c r="G135" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="B136" s="1">
-        <v>7440020</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>40</v>
+        <v>2385855</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="E136" s="8">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G136" s="13">
-        <v>52.006539397853551</v>
+      <c r="G136" s="8">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B137" s="1">
-        <v>7440020</v>
+        <v>425</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="D137" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E137" s="8">
+        <v>81</v>
+      </c>
+      <c r="E137" s="17">
         <v>10</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G137" s="13">
-        <v>140</v>
+      <c r="G137" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B138" s="1">
-        <v>14797558</v>
+        <v>91203</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="D138" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E138" s="13">
         <v>1</v>
       </c>
-      <c r="E138" s="8">
-        <v>100</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G138" s="8">
-        <v>10000</v>
+      <c r="G138" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>60</v>
+        <v>405</v>
+      </c>
+      <c r="B139" s="1">
+        <v>7440020</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E139" s="8" t="s">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="E139" s="8">
+        <v>10</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G139" s="8" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="G139" s="13">
+        <v>52.006539397853551</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>254</v>
+        <v>426</v>
       </c>
       <c r="B140" s="1">
-        <v>98953</v>
+        <v>7440020</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="D140" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E140" s="13">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="E140" s="8">
+        <v>10</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G140" s="8">
-        <v>14</v>
+      <c r="G140" s="13">
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B141" s="15" t="s">
-        <v>355</v>
+        <v>502</v>
+      </c>
+      <c r="B141" s="1">
+        <v>14797558</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="E141" s="13">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E141" s="8">
+        <v>100</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G141" s="8">
-        <v>7.9000000000000001E-4</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B142" s="1">
-        <v>62759</v>
+        <v>377</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E142" s="13">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G142" s="8">
-        <v>6.8000000000000005E-4</v>
+        <v>60</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>353</v>
+        <v>254</v>
+      </c>
+      <c r="B143" s="1">
+        <v>98953</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>352</v>
+        <v>254</v>
       </c>
       <c r="D143" s="9" t="s">
-        <v>353</v>
+        <v>255</v>
       </c>
       <c r="E143" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G143" s="8">
-        <v>5.0000000000000001E-3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="B144" s="1">
-        <v>621647</v>
+        <v>354</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>355</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>258</v>
+        <v>354</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>259</v>
+        <v>355</v>
       </c>
       <c r="E144" s="13">
         <v>2</v>
@@ -5319,44 +5319,44 @@
         <v>364</v>
       </c>
       <c r="G144" s="8">
-        <v>4.5999999999999999E-3</v>
+        <v>7.9000000000000001E-4</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B145" s="1">
-        <v>86306</v>
+        <v>62759</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E145" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G145" s="8">
-        <v>0.55000000000000004</v>
+        <v>6.8000000000000005E-4</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D146" s="9" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E146" s="13">
         <v>2</v>
@@ -5365,67 +5365,67 @@
         <v>364</v>
       </c>
       <c r="G146" s="8">
-        <v>1.6E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B147" s="1">
-        <v>95578</v>
+        <v>621647</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="D147" s="9" t="s">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="E147" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G147" s="8">
-        <v>14</v>
+        <v>4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="B148" s="1">
-        <v>95501</v>
+        <v>86306</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="D148" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E148" s="8">
-        <v>0.5</v>
+        <v>261</v>
+      </c>
+      <c r="E148" s="13">
+        <v>1</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G148" s="8">
-        <v>110</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B149" s="1">
-        <v>88755</v>
+        <v>356</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>357</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>168</v>
+        <v>356</v>
       </c>
       <c r="D149" s="9" t="s">
-        <v>169</v>
+        <v>357</v>
       </c>
       <c r="E149" s="13">
         <v>2</v>
@@ -5433,254 +5433,254 @@
       <c r="F149" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G149" s="8" t="s">
-        <v>60</v>
+      <c r="G149" s="8">
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B150" s="1">
-        <v>72548</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="E150" s="8">
-        <v>0.01</v>
+        <v>95578</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E150" s="13">
+        <v>1</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G150" s="8">
-        <v>3.1000000000000001E-5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B151" s="1">
-        <v>72559</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>293</v>
+        <v>95501</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="E151" s="8">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G151" s="8">
-        <v>2.1999999999999999E-5</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B152" s="1">
-        <v>50293</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E152" s="8">
-        <v>0.01</v>
+        <v>88755</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D152" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E152" s="13">
+        <v>2</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G152" s="8">
-        <v>2.1999999999999999E-5</v>
+      <c r="G152" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B153" s="1">
-        <v>56382</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E153" s="8">
-        <v>10</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G153" s="8">
-        <v>1.2999999999999999E-2</v>
+        <v>513</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="B154" s="1">
-        <v>101553</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E154" s="13">
-        <v>1</v>
+        <v>72548</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E154" s="8">
+        <v>0.01</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G154" s="8" t="s">
-        <v>60</v>
+      <c r="G154" s="8">
+        <v>3.1000000000000001E-5</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B155" s="1">
-        <v>59507</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D155" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E155" s="13">
-        <v>1</v>
+        <v>72559</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E155" s="8">
+        <v>0.01</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G155" s="8" t="s">
-        <v>60</v>
+      <c r="G155" s="8">
+        <v>2.1999999999999999E-5</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="B156" s="1">
-        <v>7005723</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E156" s="13">
-        <v>1</v>
+        <v>50293</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E156" s="8">
+        <v>0.01</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G156" s="8" t="s">
-        <v>60</v>
+      <c r="G156" s="8">
+        <v>2.1999999999999999E-5</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>507</v>
+        <v>322</v>
       </c>
       <c r="B157" s="1">
-        <v>106467</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D157" s="9" t="s">
-        <v>115</v>
+        <v>56382</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="E157" s="8">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G157" s="8">
-        <v>16</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>262</v>
+        <v>475</v>
       </c>
       <c r="B158" s="1">
-        <v>608935</v>
+        <v>101553</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="D158" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="E158" s="12">
+        <v>209</v>
+      </c>
+      <c r="E158" s="13">
         <v>1</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G158" s="8">
-        <v>0.15</v>
+      <c r="G158" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>172</v>
+        <v>506</v>
       </c>
       <c r="B159" s="1">
-        <v>87865</v>
+        <v>59507</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="D159" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E159" s="8">
+        <v>157</v>
+      </c>
+      <c r="E159" s="13">
         <v>1</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G159" s="8">
-        <v>0.15</v>
+      <c r="G159" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>264</v>
+        <v>476</v>
       </c>
       <c r="B160" s="1">
-        <v>85018</v>
+        <v>7005723</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="D160" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E160" s="12">
+        <v>215</v>
+      </c>
+      <c r="E160" s="13">
         <v>1</v>
       </c>
       <c r="F160" s="2" t="s">
@@ -5692,91 +5692,91 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>174</v>
+        <v>507</v>
       </c>
       <c r="B161" s="1">
-        <v>108952</v>
+        <v>106467</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="D161" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E161" s="13">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="E161" s="8">
+        <v>0.5</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>364</v>
       </c>
       <c r="G161" s="8">
-        <v>9400</v>
+        <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>60</v>
+        <v>262</v>
+      </c>
+      <c r="B162" s="1">
+        <v>608935</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E162" s="8">
-        <v>10</v>
+        <v>262</v>
+      </c>
+      <c r="D162" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E162" s="12">
+        <v>1</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G162" s="13" t="s">
-        <v>60</v>
+      <c r="G162" s="8">
+        <v>0.15</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>359</v>
+        <v>172</v>
+      </c>
+      <c r="B163" s="1">
+        <v>87865</v>
       </c>
       <c r="C163" s="9" t="s">
-        <v>358</v>
+        <v>172</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>359</v>
+        <v>173</v>
       </c>
       <c r="E163" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G163" s="8" t="s">
-        <v>60</v>
+      <c r="G163" s="8">
+        <v>0.15</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="B164" s="1">
-        <v>100027</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E164" s="13">
-        <v>5</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>364</v>
+        <v>510</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="G164" s="8" t="s">
         <v>60</v>
@@ -5784,39 +5784,39 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B165" s="1">
-        <v>129000</v>
+        <v>85018</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D165" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E165" s="13">
+        <v>265</v>
+      </c>
+      <c r="E165" s="12">
         <v>1</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G165" s="8">
-        <v>290</v>
+      <c r="G165" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>406</v>
+        <v>174</v>
       </c>
       <c r="B166" s="1">
-        <v>7782492</v>
+        <v>108952</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="D166" s="9" t="s">
-        <v>44</v>
+        <v>175</v>
       </c>
       <c r="E166" s="13">
         <v>1</v>
@@ -5824,257 +5824,257 @@
       <c r="F166" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G166" s="13">
-        <v>4.2412000000000001</v>
+      <c r="G166" s="8">
+        <v>9400</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B167" s="1">
-        <v>7782492</v>
+        <v>396</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E167" s="13">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E167" s="8">
+        <v>10</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G167" s="13">
-        <v>120</v>
+      <c r="G167" s="13" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="B168" s="1">
-        <v>7440224</v>
+        <v>388</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>359</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>47</v>
+        <v>358</v>
       </c>
       <c r="D168" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E168" s="12">
-        <v>0.1</v>
+        <v>359</v>
+      </c>
+      <c r="E168" s="8">
+        <v>10</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G168" s="13">
-        <v>8.5000000000000006E-2</v>
+      <c r="G168" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>428</v>
+        <v>508</v>
       </c>
       <c r="B169" s="1">
-        <v>7440224</v>
+        <v>100027</v>
       </c>
       <c r="C169" s="9" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E169" s="12">
-        <v>0.1</v>
+        <v>171</v>
+      </c>
+      <c r="E169" s="13">
+        <v>5</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G169" s="13" t="s">
+      <c r="G169" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E170" s="13">
-        <v>1</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G170" s="8">
-        <v>10</v>
+        <v>515</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>66</v>
+        <v>266</v>
+      </c>
+      <c r="B171" s="1">
+        <v>129000</v>
       </c>
       <c r="C171" s="9" t="s">
-        <v>65</v>
+        <v>266</v>
       </c>
       <c r="D171" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E171" s="8">
-        <v>500</v>
+        <v>267</v>
+      </c>
+      <c r="E171" s="13">
+        <v>1</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G171" s="8" t="s">
-        <v>60</v>
+      <c r="G171" s="8">
+        <v>290</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B172" s="15" t="s">
-        <v>390</v>
+        <v>406</v>
+      </c>
+      <c r="B172" s="1">
+        <v>7782492</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D172" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E172" s="8">
-        <v>100</v>
+        <v>44</v>
+      </c>
+      <c r="E172" s="13">
+        <v>1</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G172" s="8" t="s">
-        <v>60</v>
+      <c r="G172" s="13">
+        <v>4.2412000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>60</v>
+        <v>427</v>
+      </c>
+      <c r="B173" s="1">
+        <v>7782492</v>
       </c>
       <c r="C173" s="9" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E173" s="8">
-        <v>50</v>
+        <v>42</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G173" s="8" t="s">
-        <v>60</v>
+      <c r="G173" s="13">
+        <v>120</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>60</v>
+        <v>407</v>
+      </c>
+      <c r="B174" s="1">
+        <v>7440224</v>
       </c>
       <c r="C174" s="9" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>60</v>
+        <v>48</v>
+      </c>
+      <c r="E174" s="12">
+        <v>0.1</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G174" s="8" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="G174" s="13">
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>60</v>
+        <v>428</v>
+      </c>
+      <c r="B175" s="1">
+        <v>7440224</v>
       </c>
       <c r="C175" s="9" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E175" s="8" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="E175" s="12">
+        <v>0.1</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G175" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G175" s="13" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>60</v>
+        <v>378</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>60</v>
+        <v>346</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E176" s="8" t="s">
-        <v>60</v>
+        <v>347</v>
+      </c>
+      <c r="E176" s="13">
+        <v>1</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G176" s="8" t="s">
-        <v>60</v>
+        <v>364</v>
+      </c>
+      <c r="G176" s="8">
+        <v>10</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D177" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D177" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E177" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="F177" s="8" t="s">
         <v>60</v>
       </c>
       <c r="G177" s="8" t="s">
@@ -6083,65 +6083,65 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B178" s="2">
-        <v>127184</v>
+        <v>65</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="E178" s="8">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G178" s="8">
-        <v>0.24</v>
+      <c r="G178" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="B179" s="1">
-        <v>7440280</v>
+        <v>389</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>390</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E179" s="12">
-        <v>0.1</v>
+        <v>68</v>
+      </c>
+      <c r="E179" s="8">
+        <v>100</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G179" s="12">
-        <v>4.2999999999999997E-2</v>
+      <c r="G179" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>85</v>
+        <v>391</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C180" s="9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E180" s="17">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="E180" s="8">
+        <v>50</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>364</v>
@@ -6152,22 +6152,22 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>87</v>
+        <v>392</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C181" s="9" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="D181" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E181" s="17">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>364</v>
+        <v>60</v>
       </c>
       <c r="G181" s="8" t="s">
         <v>60</v>
@@ -6175,108 +6175,108 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B182" s="1">
-        <v>108883</v>
+        <v>393</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="D182" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E182" s="8">
-        <v>0.5</v>
+        <v>60</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G182" s="8">
-        <v>720</v>
+        <v>60</v>
+      </c>
+      <c r="G182" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>326</v>
+        <v>394</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C183" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E183" s="8">
-        <v>0.5</v>
+      <c r="C183" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D183" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G183" s="8">
-        <v>6.3999999999999997E-6</v>
+        <v>60</v>
+      </c>
+      <c r="G183" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B184" s="1">
-        <v>8001352</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E184" s="8">
-        <v>0.5</v>
+        <v>395</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G184" s="8">
-        <v>2.8E-5</v>
+        <v>60</v>
+      </c>
+      <c r="G184" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B185" s="1">
-        <v>156605</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D185" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E185" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G185" s="8">
-        <v>120</v>
+        <v>511</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G185" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="B186" s="1">
-        <v>75252</v>
+        <v>138</v>
+      </c>
+      <c r="B186" s="2">
+        <v>127184</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="D186" s="9" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="E186" s="8">
         <v>0.5</v>
@@ -6285,333 +6285,337 @@
         <v>364</v>
       </c>
       <c r="G186" s="8">
-        <v>3.3</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="B187" s="15" t="s">
-        <v>362</v>
+        <v>429</v>
+      </c>
+      <c r="B187" s="1">
+        <v>7440280</v>
       </c>
       <c r="C187" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D187" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="E187" s="8">
-        <v>2</v>
+        <v>49</v>
+      </c>
+      <c r="D187" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E187" s="12">
+        <v>0.1</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G187" s="8">
-        <v>6.3E-2</v>
+      <c r="G187" s="12">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="B188" s="1">
-        <v>79016</v>
+        <v>430</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="C188" s="9" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="D188" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E188" s="8">
-        <v>0.5</v>
+        <v>85</v>
+      </c>
+      <c r="E188" s="17">
+        <v>10</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G188" s="8">
-        <v>1.4</v>
+      <c r="G188" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="B189" s="1">
-        <v>75014</v>
+        <v>431</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="C189" s="9" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="D189" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="E189" s="8">
-        <v>0.5</v>
+        <v>87</v>
+      </c>
+      <c r="E189" s="17">
+        <v>10</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G189" s="8">
-        <v>2.3E-2</v>
+      <c r="G189" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>408</v>
+        <v>140</v>
       </c>
       <c r="B190" s="1">
-        <v>7440666</v>
+        <v>108883</v>
       </c>
       <c r="C190" s="9" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
       <c r="D190" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E190" s="13">
-        <v>5</v>
+        <v>141</v>
+      </c>
+      <c r="E190" s="8">
+        <v>0.5</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G190" s="13">
-        <v>117.18045413475284</v>
+      <c r="G190" s="8">
+        <v>720</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B191" s="1">
-        <v>7440666</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D191" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E191" s="13">
-        <v>5</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="G191" s="13">
-        <v>2100</v>
+        <v>512</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E192" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F192" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G192" s="8" t="s">
-        <v>60</v>
+        <v>326</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E192" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G192" s="8">
+        <v>6.3999999999999997E-6</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="B193" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E193" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F193" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G193" s="8" t="s">
-        <v>60</v>
+        <v>324</v>
+      </c>
+      <c r="B193" s="1">
+        <v>8001352</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E193" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G193" s="8">
+        <v>2.8E-5</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E194" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F194" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G194" s="8" t="s">
-        <v>60</v>
+        <v>446</v>
+      </c>
+      <c r="B194" s="1">
+        <v>156605</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E194" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G194" s="8">
+        <v>120</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E195" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F195" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G195" s="8" t="s">
-        <v>60</v>
+        <v>445</v>
+      </c>
+      <c r="B195" s="1">
+        <v>75252</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D195" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E195" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G195" s="8">
+        <v>3.3</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="B196" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E196" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F196" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G196" s="8" t="s">
-        <v>60</v>
+        <v>397</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E196" s="8">
+        <v>2</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G196" s="8">
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="B197" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C197" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D197" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E197" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G197" s="8" t="s">
-        <v>60</v>
+        <v>444</v>
+      </c>
+      <c r="B197" s="1">
+        <v>79016</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D197" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E197" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G197" s="8">
+        <v>1.4</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E198" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G198" s="8" t="s">
-        <v>60</v>
+        <v>443</v>
+      </c>
+      <c r="B198" s="1">
+        <v>75014</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D198" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E198" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G198" s="8">
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="B199" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C199" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E199" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F199" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G199" s="8" t="s">
-        <v>60</v>
+        <v>408</v>
+      </c>
+      <c r="B199" s="1">
+        <v>7440666</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D199" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E199" s="13">
+        <v>5</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G199" s="13">
+        <v>117.18045413475284</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F200" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G200" s="8" t="s">
-        <v>60</v>
+        <v>432</v>
+      </c>
+      <c r="B200" s="1">
+        <v>7440666</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E200" s="13">
+        <v>5</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="G200" s="13">
+        <v>2100</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G200"/>
+  <autoFilter ref="A1:G200">
+    <sortState ref="A2:G200">
+      <sortCondition ref="A1:A200"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/2_21_19_QLs.xlsx
+++ b/2_21_19_QLs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\deqlab1\WQDataSteward\R_Scripts\EDD_Data_QC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\EDD_Data_QC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="526">
   <si>
     <t>Nitrates-Nitrite (as N)</t>
   </si>
@@ -1581,6 +1581,30 @@
   </si>
   <si>
     <t>Aluminum, Dissolved</t>
+  </si>
+  <si>
+    <t>Total Suspended Solids</t>
+  </si>
+  <si>
+    <t>Total Residual Chlorine</t>
+  </si>
+  <si>
+    <t>Oil and Grease</t>
+  </si>
+  <si>
+    <t>Total BTEX</t>
+  </si>
+  <si>
+    <t>Ammonia, Total (as N)</t>
+  </si>
+  <si>
+    <t>Chlorine, Total Residual</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>BTEX, Total</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1616,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1614,6 +1638,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1640,7 +1671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1709,6 +1740,15 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1991,11 +2031,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V200"/>
+  <dimension ref="A1:V205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B192" sqref="B192:G200"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,7 +2087,7 @@
         <v>299</v>
       </c>
       <c r="E2" s="8">
-        <v>0.01</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>364</v>
@@ -2093,7 +2133,7 @@
         <v>301</v>
       </c>
       <c r="E4" s="8">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>364</v>
@@ -2185,7 +2225,7 @@
         <v>145</v>
       </c>
       <c r="E8" s="8">
-        <v>0.5</v>
+        <v>11.4</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>364</v>
@@ -2208,7 +2248,7 @@
         <v>117</v>
       </c>
       <c r="E9" s="8">
-        <v>0.5</v>
+        <v>14.1</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>364</v>
@@ -2231,7 +2271,7 @@
         <v>123</v>
       </c>
       <c r="E10" s="8">
-        <v>0.5</v>
+        <v>8.4</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>364</v>
@@ -2300,7 +2340,7 @@
         <v>269</v>
       </c>
       <c r="E13" s="12">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>364</v>
@@ -2415,7 +2455,7 @@
         <v>351</v>
       </c>
       <c r="E18" s="8">
-        <v>1.0000000000000001E-5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>364</v>
@@ -2438,7 +2478,7 @@
         <v>177</v>
       </c>
       <c r="E19" s="13">
-        <v>2</v>
+        <v>165</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>364</v>
@@ -2507,7 +2547,7 @@
         <v>161</v>
       </c>
       <c r="E22" s="13">
-        <v>1</v>
+        <v>8.1</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>364</v>
@@ -2530,7 +2570,7 @@
         <v>163</v>
       </c>
       <c r="E23" s="13">
-        <v>5</v>
+        <v>8.1</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>364</v>
@@ -2553,7 +2593,7 @@
         <v>167</v>
       </c>
       <c r="E24" s="13">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>364</v>
@@ -2599,7 +2639,7 @@
         <v>233</v>
       </c>
       <c r="E26" s="12">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>364</v>
@@ -2645,7 +2685,7 @@
         <v>213</v>
       </c>
       <c r="E28" s="13">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>364</v>
@@ -2668,7 +2708,7 @@
         <v>225</v>
       </c>
       <c r="E29" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>364</v>
@@ -2691,7 +2731,7 @@
         <v>165</v>
       </c>
       <c r="E30" s="13">
-        <v>2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>364</v>
@@ -2714,7 +2754,7 @@
         <v>181</v>
       </c>
       <c r="E31" s="13">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>364</v>
@@ -2737,7 +2777,7 @@
         <v>183</v>
       </c>
       <c r="E32" s="13">
-        <v>1</v>
+        <v>10.5</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>364</v>
@@ -2898,7 +2938,7 @@
         <v>185</v>
       </c>
       <c r="E39" s="13">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>364</v>
@@ -3174,7 +3214,7 @@
         <v>311</v>
       </c>
       <c r="E51" s="8">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>364</v>
@@ -3197,7 +3237,7 @@
         <v>187</v>
       </c>
       <c r="E52" s="13">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>364</v>
@@ -3335,7 +3375,7 @@
         <v>189</v>
       </c>
       <c r="E58" s="8">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>364</v>
@@ -3404,7 +3444,7 @@
         <v>197</v>
       </c>
       <c r="E61" s="12">
-        <v>1</v>
+        <v>12.3</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>364</v>
@@ -3427,7 +3467,7 @@
         <v>199</v>
       </c>
       <c r="E62" s="12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>364</v>
@@ -3450,7 +3490,7 @@
         <v>11</v>
       </c>
       <c r="E63" s="12">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>364</v>
@@ -3473,7 +3513,7 @@
         <v>205</v>
       </c>
       <c r="E64" s="13">
-        <v>2</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>364</v>
@@ -3496,7 +3536,7 @@
         <v>201</v>
       </c>
       <c r="E65" s="13">
-        <v>2</v>
+        <v>15.9</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>364</v>
@@ -3611,7 +3651,7 @@
         <v>211</v>
       </c>
       <c r="E70" s="13">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>364</v>
@@ -3634,7 +3674,7 @@
         <v>13</v>
       </c>
       <c r="E71" s="12">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>364</v>
@@ -3657,7 +3697,7 @@
         <v>13</v>
       </c>
       <c r="E72" s="12">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>364</v>
@@ -3772,7 +3812,7 @@
         <v>99</v>
       </c>
       <c r="E77" s="8">
-        <v>0.5</v>
+        <v>18</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>364</v>
@@ -3818,7 +3858,7 @@
         <v>103</v>
       </c>
       <c r="E79" s="8">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>364</v>
@@ -3841,7 +3881,7 @@
         <v>107</v>
       </c>
       <c r="E80" s="8">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>364</v>
@@ -3887,7 +3927,7 @@
         <v>287</v>
       </c>
       <c r="E82" s="8">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>364</v>
@@ -3979,7 +4019,7 @@
         <v>16</v>
       </c>
       <c r="E86" s="12">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>364</v>
@@ -4140,7 +4180,7 @@
         <v>58</v>
       </c>
       <c r="E93" s="13">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>364</v>
@@ -4162,8 +4202,8 @@
       <c r="D94" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E94" s="13">
-        <v>2</v>
+      <c r="E94" s="12">
+        <v>2.4500000000000002</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>364</v>
@@ -4185,8 +4225,8 @@
       <c r="D95" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E95" s="13">
-        <v>1</v>
+      <c r="E95" s="12">
+        <v>7.25</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>364</v>
@@ -4232,7 +4272,7 @@
         <v>219</v>
       </c>
       <c r="E97" s="13">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>364</v>
@@ -4324,7 +4364,7 @@
         <v>227</v>
       </c>
       <c r="E101" s="13">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>364</v>
@@ -4347,7 +4387,7 @@
         <v>229</v>
       </c>
       <c r="E102" s="13">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>364</v>
@@ -4370,7 +4410,7 @@
         <v>221</v>
       </c>
       <c r="E103" s="13">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>364</v>
@@ -4416,7 +4456,7 @@
         <v>303</v>
       </c>
       <c r="E105" s="8">
-        <v>0.01</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>364</v>
@@ -4439,7 +4479,7 @@
         <v>307</v>
       </c>
       <c r="E106" s="8">
-        <v>0.01</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>364</v>
@@ -4462,7 +4502,7 @@
         <v>309</v>
       </c>
       <c r="E107" s="8">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>364</v>
@@ -4485,7 +4525,7 @@
         <v>129</v>
       </c>
       <c r="E108" s="8">
-        <v>0.5</v>
+        <v>21.6</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>364</v>
@@ -4508,7 +4548,7 @@
         <v>237</v>
       </c>
       <c r="E109" s="13">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>364</v>
@@ -4531,7 +4571,7 @@
         <v>239</v>
       </c>
       <c r="E110" s="13">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>364</v>
@@ -4692,7 +4732,7 @@
         <v>245</v>
       </c>
       <c r="E117" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>364</v>
@@ -4830,7 +4870,7 @@
         <v>251</v>
       </c>
       <c r="E123" s="13">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>364</v>
@@ -4899,7 +4939,7 @@
         <v>283</v>
       </c>
       <c r="E126" s="8">
-        <v>0.01</v>
+        <v>1.2E-2</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>364</v>
@@ -4945,7 +4985,7 @@
         <v>317</v>
       </c>
       <c r="E128" s="8">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>364</v>
@@ -4991,7 +5031,7 @@
         <v>113</v>
       </c>
       <c r="E130" s="8">
-        <v>0.5</v>
+        <v>7.6</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>364</v>
@@ -5083,7 +5123,7 @@
         <v>135</v>
       </c>
       <c r="E134" s="13">
-        <v>2</v>
+        <v>8.4</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>364</v>
@@ -5129,7 +5169,7 @@
         <v>321</v>
       </c>
       <c r="E136" s="8">
-        <v>0.01</v>
+        <v>0.96</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>364</v>
@@ -5175,7 +5215,7 @@
         <v>253</v>
       </c>
       <c r="E138" s="13">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>364</v>
@@ -5290,7 +5330,7 @@
         <v>255</v>
       </c>
       <c r="E143" s="13">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>364</v>
@@ -5336,7 +5376,7 @@
         <v>257</v>
       </c>
       <c r="E145" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>364</v>
@@ -5451,7 +5491,7 @@
         <v>159</v>
       </c>
       <c r="E150" s="13">
-        <v>1</v>
+        <v>9.9</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>364</v>
@@ -5474,7 +5514,7 @@
         <v>111</v>
       </c>
       <c r="E151" s="8">
-        <v>0.5</v>
+        <v>7.6</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>364</v>
@@ -5497,7 +5537,7 @@
         <v>169</v>
       </c>
       <c r="E152" s="13">
-        <v>2</v>
+        <v>10.8</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>364</v>
@@ -5612,7 +5652,7 @@
         <v>323</v>
       </c>
       <c r="E157" s="8">
-        <v>10</v>
+        <v>0.95</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>364</v>
@@ -5635,7 +5675,7 @@
         <v>209</v>
       </c>
       <c r="E158" s="13">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>364</v>
@@ -5658,7 +5698,7 @@
         <v>157</v>
       </c>
       <c r="E159" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>364</v>
@@ -5681,7 +5721,7 @@
         <v>215</v>
       </c>
       <c r="E160" s="13">
-        <v>1</v>
+        <v>12.6</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>364</v>
@@ -5704,7 +5744,7 @@
         <v>115</v>
       </c>
       <c r="E161" s="8">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>364</v>
@@ -5796,7 +5836,7 @@
         <v>265</v>
       </c>
       <c r="E165" s="12">
-        <v>1</v>
+        <v>16.2</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>364</v>
@@ -5819,7 +5859,7 @@
         <v>175</v>
       </c>
       <c r="E166" s="13">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>364</v>
@@ -5842,7 +5882,7 @@
         <v>60</v>
       </c>
       <c r="E167" s="8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>364</v>
@@ -5888,7 +5928,7 @@
         <v>171</v>
       </c>
       <c r="E169" s="13">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>364</v>
@@ -5934,7 +5974,7 @@
         <v>267</v>
       </c>
       <c r="E171" s="13">
-        <v>1</v>
+        <v>5.7</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>364</v>
@@ -6371,7 +6411,7 @@
         <v>141</v>
       </c>
       <c r="E190" s="8">
-        <v>0.5</v>
+        <v>18</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>364</v>
@@ -6463,7 +6503,7 @@
         <v>121</v>
       </c>
       <c r="E194" s="8">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>364</v>
@@ -6608,6 +6648,76 @@
       </c>
       <c r="G200" s="13">
         <v>2100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C201" s="19" t="s">
+        <v>518</v>
+      </c>
+      <c r="E201" s="20">
+        <v>5</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C202" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="E202" s="20">
+        <v>50</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C203" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="E203" s="21">
+        <v>5000</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C204" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="E204" s="20">
+        <v>2</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C205" s="19" t="s">
+        <v>522</v>
+      </c>
+      <c r="E205" s="20">
+        <v>20</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
